--- a/Results/Categorization/lda2vec-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-elmo_ori-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="1823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1809">
   <si>
     <t>id</t>
   </si>
@@ -4039,354 +4039,345 @@
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
+    <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|AMBIENCE|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|SERVICE</t>
   </si>
   <si>
@@ -4396,7 +4387,7 @@
     <t>PRICES|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|PRICES|SERVICE|SERVICE</t>
+    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>PRICES|AMBIENCE|FOOD|FOOD</t>
@@ -4408,10 +4399,7 @@
     <t>AMBIENCE|PRICES|AMBIENCE|FOOD|PRICES|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|PRICES</t>
+    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|AMBIENCE|PRICES</t>
@@ -4444,18 +4432,12 @@
     <t>service|price</t>
   </si>
   <si>
-    <t>service|decor|always|thing|excellent</t>
+    <t>service|decor|always|excellent</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>food|thing</t>
-  </si>
-  <si>
-    <t>thing|special</t>
-  </si>
-  <si>
     <t>never|though</t>
   </si>
   <si>
@@ -4498,7 +4480,7 @@
     <t>worth|menu</t>
   </si>
   <si>
-    <t>food|fresh|$6</t>
+    <t>food|fresh|$6!-</t>
   </si>
   <si>
     <t>dish|great</t>
@@ -4519,7 +4501,7 @@
     <t>ambience|would|best|nice</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
   </si>
   <si>
     <t>service|reasonable|food|great|great|great|price</t>
@@ -4585,7 +4567,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4597,6 +4579,9 @@
     <t>service|pizza|great</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
     <t>best|sushi</t>
   </si>
   <si>
@@ -4651,7 +4636,7 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>overpriced|price|$8.00...just</t>
+    <t>overpriced|price|$8.00!-</t>
   </si>
   <si>
     <t>well|always|wine|price</t>
@@ -4747,13 +4732,10 @@
     <t>really</t>
   </si>
   <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>service|good|restaurant|thing</t>
-  </si>
-  <si>
-    <t>delicious|thing</t>
+    <t>service|good|restaurant</t>
+  </si>
+  <si>
+    <t>delicious</t>
   </si>
   <si>
     <t>service|though|reasonable|price</t>
@@ -4762,7 +4744,7 @@
     <t>delicious|restaurant|food|fresh|fresh</t>
   </si>
   <si>
-    <t>hats</t>
+    <t>hats|chef</t>
   </si>
   <si>
     <t>delicious|fresh</t>
@@ -4786,16 +4768,16 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>menu|food|$18</t>
+    <t>menu|food|$18!-</t>
   </si>
   <si>
     <t>service|food|great|price</t>
   </si>
   <si>
-    <t>atmosphere|thing|wait</t>
-  </si>
-  <si>
-    <t>dish|reasonable|price|$3-6</t>
+    <t>atmosphere|wait</t>
+  </si>
+  <si>
+    <t>dish|reasonable|price|$3-6!-</t>
   </si>
   <si>
     <t>well|great</t>
@@ -4807,9 +4789,6 @@
     <t>dish|fresh</t>
   </si>
   <si>
-    <t>delicious</t>
-  </si>
-  <si>
     <t>place|delicious|food|staff</t>
   </si>
   <si>
@@ -4828,7 +4807,7 @@
     <t>delicious|though</t>
   </si>
   <si>
-    <t>beer</t>
+    <t>bombay|beer</t>
   </si>
   <si>
     <t>place|nice</t>
@@ -4852,7 +4831,7 @@
     <t>ambience|like</t>
   </si>
   <si>
-    <t>dish|menu|thing</t>
+    <t>dish|menu</t>
   </si>
   <si>
     <t>place|good|meal</t>
@@ -4870,7 +4849,7 @@
     <t>overpriced|restaurant|menu|wine|price</t>
   </si>
   <si>
-    <t>wine|$70+</t>
+    <t>wine|$70!-|$30!-</t>
   </si>
   <si>
     <t>service|would|price</t>
@@ -4897,7 +4876,7 @@
     <t>service|place</t>
   </si>
   <si>
-    <t>service|atmosphere|restaurant|food|thing|great|great</t>
+    <t>service|atmosphere|restaurant|food|great|great</t>
   </si>
   <si>
     <t>service|menu|staff|meal</t>
@@ -4930,7 +4909,7 @@
     <t>service|ambience|nice|great</t>
   </si>
   <si>
-    <t>atmosphere|sushi|feel|like|thing|special</t>
+    <t>atmosphere|sushi|feel|like|special</t>
   </si>
   <si>
     <t>well|staff</t>
@@ -4951,7 +4930,7 @@
     <t>service|always|great</t>
   </si>
   <si>
-    <t>rude|thing|wait</t>
+    <t>rude|wait</t>
   </si>
   <si>
     <t>make|service|place|worth|feel|like|food|price|price</t>
@@ -4972,7 +4951,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|thing|$7)</t>
+    <t>like|$7!-</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -4993,7 +4972,7 @@
     <t>good|though|food|price</t>
   </si>
   <si>
-    <t>good|though|price|$24</t>
+    <t>good|though|price|$24!-</t>
   </si>
   <si>
     <t>wait|special</t>
@@ -5002,7 +4981,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10.</t>
+    <t>great|$10!-</t>
   </si>
   <si>
     <t>wine|price</t>
@@ -5017,15 +4996,12 @@
     <t>make|feel|like|wait|staff</t>
   </si>
   <si>
-    <t>service|thing|thing|wait</t>
+    <t>service|wait</t>
   </si>
   <si>
     <t>good|wait|wait</t>
   </si>
   <si>
-    <t>dinner|thing|thing</t>
-  </si>
-  <si>
     <t>place|would|good|great|staff</t>
   </si>
   <si>
@@ -5035,7 +5011,7 @@
     <t>service|restaurant|back</t>
   </si>
   <si>
-    <t>gentleman|table|smile|order</t>
+    <t>gentleman|manager|table|smile|order</t>
   </si>
   <si>
     <t>food|great|price</t>
@@ -5053,7 +5029,7 @@
     <t>worth|well|back</t>
   </si>
   <si>
-    <t>place|special|money.</t>
+    <t>place|special</t>
   </si>
   <si>
     <t>service|excellent</t>
@@ -5068,9 +5044,6 @@
     <t>pizza|price</t>
   </si>
   <si>
-    <t>wait|money</t>
-  </si>
-  <si>
     <t>wait|staff</t>
   </si>
   <si>
@@ -5080,19 +5053,16 @@
     <t>place|great</t>
   </si>
   <si>
-    <t>service|thing</t>
-  </si>
-  <si>
     <t>place|worth|price</t>
   </si>
   <si>
-    <t>cheese|sandwich|business</t>
+    <t>cheese|sandwich|manager|business</t>
   </si>
   <si>
     <t>place|well</t>
   </si>
   <si>
-    <t>like|great</t>
+    <t>like|great|100 dollar!-</t>
   </si>
   <si>
     <t>worth|great</t>
@@ -5104,13 +5074,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>wait|staff|she's-way-cuter-than-me-that-b@#$*</t>
+    <t>wait|staff|$*!-</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50</t>
+    <t>great|great|$8.50!-</t>
   </si>
   <si>
     <t>make|good|reasonable|back|price</t>
@@ -5161,19 +5131,13 @@
     <t>quibbles|bill|measures|liquers|courtesey|house</t>
   </si>
   <si>
-    <t>thing|wait</t>
-  </si>
-  <si>
     <t>place|decor|food|great|great|price</t>
   </si>
   <si>
-    <t>place|food|money.</t>
-  </si>
-  <si>
     <t>good|reasonable|food|wine|great|price</t>
   </si>
   <si>
-    <t>overpriced|good|thing|price</t>
+    <t>overpriced|good|price</t>
   </si>
   <si>
     <t>would|food|price</t>
@@ -5188,7 +5152,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>delight|seating|yorkie</t>
+    <t>location|delight|seating|yorkie</t>
   </si>
   <si>
     <t>reasonable|food|great|price</t>
@@ -5197,7 +5161,7 @@
     <t>good|food|price</t>
   </si>
   <si>
-    <t>jazz|point</t>
+    <t>jazz|duo|point</t>
   </si>
   <si>
     <t>service|good|food|great|price</t>
@@ -5218,10 +5182,10 @@
     <t>decor|reasonable|food|nice|price</t>
   </si>
   <si>
-    <t>sushi|$20</t>
-  </si>
-  <si>
-    <t>overpriced|price|$15....</t>
+    <t>sushi|$20!-</t>
+  </si>
+  <si>
+    <t>overpriced|price|$15!-</t>
   </si>
   <si>
     <t>restaurant|really</t>
@@ -5230,7 +5194,7 @@
     <t>feel|like</t>
   </si>
   <si>
-    <t>good|though|meal|$60</t>
+    <t>good|though|meal|$60!-</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5239,7 +5203,7 @@
     <t>place|dinner|great</t>
   </si>
   <si>
-    <t>make|atmosphere|back|thing</t>
+    <t>make|atmosphere|back</t>
   </si>
   <si>
     <t>food|excellent|great|price</t>
@@ -5251,19 +5215,19 @@
     <t>overpriced|service|food|price</t>
   </si>
   <si>
-    <t>dinner|$400.00</t>
+    <t>dinner|$400.00!-</t>
   </si>
   <si>
     <t>back|really|nice</t>
   </si>
   <si>
-    <t>plate|guacamole|$11</t>
+    <t>plate|guacamole|$11!-</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
   </si>
   <si>
     <t>friendly|good|food|price</t>
@@ -5290,13 +5254,10 @@
     <t>make|atmosphere|nice</t>
   </si>
   <si>
-    <t>service|dish|price|$10.</t>
-  </si>
-  <si>
-    <t>decor|thing</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500</t>
+    <t>service|dish|price|$10!-</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5308,19 +5269,16 @@
     <t>restaurant|restaurant</t>
   </si>
   <si>
-    <t>environment|guys|trophy|wives|escorts</t>
-  </si>
-  <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>back|money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>would|dinner|$55</t>
+    <t>environment|lot|guys|trophy|wives|escorts</t>
+  </si>
+  <si>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>would|dinner|$55!-</t>
   </si>
   <si>
     <t>would|good|dinner|food</t>
@@ -5329,16 +5287,16 @@
     <t>would|dinner|meal</t>
   </si>
   <si>
-    <t>never|feel|restaurant|money.</t>
+    <t>never|feel|restaurant</t>
   </si>
   <si>
     <t>good|food|fresh</t>
   </si>
   <si>
-    <t>place|would|feel|restaurant|price|$25),</t>
-  </si>
-  <si>
-    <t>place|food|thing|$</t>
+    <t>place|would|feel|restaurant|price|$25!-</t>
+  </si>
+  <si>
+    <t>place|food|$!-</t>
   </si>
   <si>
     <t>worth</t>
@@ -5347,19 +5305,19 @@
     <t>place|dinner|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
+    <t>stone|bowl|$2!-</t>
   </si>
   <si>
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>menu|$29</t>
-  </si>
-  <si>
-    <t>good|reasonable|thing|great|price</t>
-  </si>
-  <si>
-    <t>service|rude|well|$500</t>
+    <t>menu|$29!-</t>
+  </si>
+  <si>
+    <t>good|reasonable|great|price</t>
+  </si>
+  <si>
+    <t>service|rude|well|$500!-</t>
   </si>
   <si>
     <t>service|good|fresh|great|meal</t>
@@ -5368,13 +5326,13 @@
     <t>would|good|food|back|price</t>
   </si>
   <si>
-    <t>never|restaurant|$24</t>
+    <t>never|restaurant|$24!-</t>
   </si>
   <si>
     <t>would|menu|reasonable</t>
   </si>
   <si>
-    <t>service|$60</t>
+    <t>service|$60!-</t>
   </si>
   <si>
     <t>place|price</t>
@@ -5889,10 +5847,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="H2" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5918,7 +5876,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5941,10 +5899,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="H4" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5967,10 +5925,10 @@
         <v>1285</v>
       </c>
       <c r="G5" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H5" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5993,10 +5951,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H6" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6019,10 +5977,10 @@
         <v>1285</v>
       </c>
       <c r="G7" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H7" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6045,10 +6003,10 @@
         <v>1276</v>
       </c>
       <c r="G8" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="H8" t="s">
-        <v>1792</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6071,10 +6029,10 @@
         <v>1340</v>
       </c>
       <c r="G9" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H9" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6097,10 +6055,10 @@
         <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="H10" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6123,10 +6081,10 @@
         <v>1294</v>
       </c>
       <c r="G11" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H11" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6146,13 +6104,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1342</v>
+        <v>1278</v>
       </c>
       <c r="G12" t="s">
-        <v>1478</v>
+        <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1792</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6172,13 +6130,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1343</v>
+        <v>1294</v>
       </c>
       <c r="G13" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="H13" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6198,13 +6156,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G14" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="H14" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6224,13 +6182,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G15" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="H15" t="s">
-        <v>1794</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6250,13 +6208,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="H16" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6276,13 +6234,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G17" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="H17" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6302,13 +6260,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G18" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="H18" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6334,7 +6292,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6354,13 +6312,13 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G20" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="H20" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6386,7 +6344,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6412,7 +6370,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6432,13 +6390,13 @@
         <v>1276</v>
       </c>
       <c r="F23" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G23" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="H23" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6458,13 +6416,13 @@
         <v>1278</v>
       </c>
       <c r="F24" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G24" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="H24" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6490,7 +6448,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6510,13 +6468,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G26" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="H26" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6536,13 +6494,13 @@
         <v>1277</v>
       </c>
       <c r="F27" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G27" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="H27" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6565,10 +6523,10 @@
         <v>1285</v>
       </c>
       <c r="G28" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="H28" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6588,13 +6546,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G29" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="H29" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6614,13 +6572,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G30" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="H30" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6640,13 +6598,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G31" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="H31" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6666,13 +6624,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G32" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="H32" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6692,13 +6650,13 @@
         <v>1278</v>
       </c>
       <c r="F33" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G33" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="H33" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6718,13 +6676,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G34" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="H34" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6747,10 +6705,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="H35" t="s">
-        <v>1796</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6770,13 +6728,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G36" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="H36" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6799,10 +6757,10 @@
         <v>1285</v>
       </c>
       <c r="G37" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H37" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6825,10 +6783,10 @@
         <v>1339</v>
       </c>
       <c r="G38" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="H38" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6848,13 +6806,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G39" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="H39" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6874,13 +6832,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1345</v>
+        <v>1356</v>
       </c>
       <c r="G40" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="H40" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6903,10 +6861,10 @@
         <v>1357</v>
       </c>
       <c r="G41" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="H41" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6926,13 +6884,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G42" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="H42" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6955,10 +6913,10 @@
         <v>1358</v>
       </c>
       <c r="G43" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="H43" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6984,7 +6942,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7010,7 +6968,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1797</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7033,10 +6991,10 @@
         <v>1339</v>
       </c>
       <c r="G46" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="H46" t="s">
-        <v>1798</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7062,7 +7020,7 @@
         <v>989</v>
       </c>
       <c r="H47" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7085,10 +7043,10 @@
         <v>1359</v>
       </c>
       <c r="G48" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="H48" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7111,10 +7069,10 @@
         <v>1338</v>
       </c>
       <c r="G49" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="H49" t="s">
-        <v>1799</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7137,10 +7095,10 @@
         <v>1339</v>
       </c>
       <c r="G50" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="H50" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7163,10 +7121,10 @@
         <v>1360</v>
       </c>
       <c r="G51" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="H51" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7189,10 +7147,10 @@
         <v>1361</v>
       </c>
       <c r="G52" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="H52" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7212,13 +7170,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G53" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="H53" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7241,10 +7199,10 @@
         <v>1362</v>
       </c>
       <c r="G54" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="H54" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7267,10 +7225,10 @@
         <v>1363</v>
       </c>
       <c r="G55" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="H55" t="s">
-        <v>1800</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7293,10 +7251,10 @@
         <v>1364</v>
       </c>
       <c r="G56" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="H56" t="s">
-        <v>1801</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7319,10 +7277,10 @@
         <v>1365</v>
       </c>
       <c r="G57" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="H57" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7345,10 +7303,10 @@
         <v>1359</v>
       </c>
       <c r="G58" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="H58" t="s">
-        <v>1802</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7371,10 +7329,10 @@
         <v>1366</v>
       </c>
       <c r="G59" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="H59" t="s">
-        <v>1800</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7397,10 +7355,10 @@
         <v>1276</v>
       </c>
       <c r="G60" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="H60" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7426,7 +7384,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7449,10 +7407,10 @@
         <v>1367</v>
       </c>
       <c r="G62" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="H62" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7475,10 +7433,10 @@
         <v>1368</v>
       </c>
       <c r="G63" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="H63" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7501,10 +7459,10 @@
         <v>1369</v>
       </c>
       <c r="G64" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="H64" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7524,13 +7482,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G65" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="H65" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7550,13 +7508,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G66" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="H66" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7576,13 +7534,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G67" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="H67" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7608,7 +7566,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7631,10 +7589,10 @@
         <v>1370</v>
       </c>
       <c r="G69" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="H69" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7657,10 +7615,10 @@
         <v>1285</v>
       </c>
       <c r="G70" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="H70" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7686,7 +7644,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7709,10 +7667,10 @@
         <v>1371</v>
       </c>
       <c r="G72" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="H72" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7735,10 +7693,10 @@
         <v>1372</v>
       </c>
       <c r="G73" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="H73" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7761,10 +7719,10 @@
         <v>1373</v>
       </c>
       <c r="G74" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="H74" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7790,7 +7748,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7810,13 +7768,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1342</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1521</v>
       </c>
       <c r="H76" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7839,10 +7797,10 @@
         <v>1339</v>
       </c>
       <c r="G77" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="H77" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7865,10 +7823,10 @@
         <v>1339</v>
       </c>
       <c r="G78" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="H78" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7888,13 +7846,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G79" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="H79" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7917,10 +7875,10 @@
         <v>1374</v>
       </c>
       <c r="G80" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="H80" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7943,10 +7901,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="H81" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7969,10 +7927,10 @@
         <v>1375</v>
       </c>
       <c r="G82" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="H82" t="s">
-        <v>1802</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7998,7 +7956,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8024,7 +7982,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8047,10 +8005,10 @@
         <v>1339</v>
       </c>
       <c r="G85" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="H85" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8073,10 +8031,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="H86" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8096,13 +8054,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G87" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="H87" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8125,10 +8083,10 @@
         <v>1362</v>
       </c>
       <c r="G88" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="H88" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8151,10 +8109,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="H89" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8180,7 +8138,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8203,10 +8161,10 @@
         <v>1376</v>
       </c>
       <c r="G91" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="H91" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8229,10 +8187,10 @@
         <v>1358</v>
       </c>
       <c r="G92" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="H92" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8255,10 +8213,10 @@
         <v>1377</v>
       </c>
       <c r="G93" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="H93" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8281,10 +8239,10 @@
         <v>1378</v>
       </c>
       <c r="G94" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="H94" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8307,10 +8265,10 @@
         <v>1379</v>
       </c>
       <c r="G95" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="H95" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8333,10 +8291,10 @@
         <v>1285</v>
       </c>
       <c r="G96" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="H96" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8359,10 +8317,10 @@
         <v>1285</v>
       </c>
       <c r="G97" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="H97" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8385,10 +8343,10 @@
         <v>1276</v>
       </c>
       <c r="G98" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="H98" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8411,10 +8369,10 @@
         <v>1380</v>
       </c>
       <c r="G99" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="H99" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8437,10 +8395,10 @@
         <v>1381</v>
       </c>
       <c r="G100" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="H100" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8463,10 +8421,10 @@
         <v>1294</v>
       </c>
       <c r="G101" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H101" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8486,13 +8444,13 @@
         <v>1285</v>
       </c>
       <c r="F102" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G102" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="H102" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8512,13 +8470,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G103" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="H103" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8538,13 +8496,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G104" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="H104" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8570,7 +8528,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8593,10 +8551,10 @@
         <v>1381</v>
       </c>
       <c r="G106" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="H106" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8619,10 +8577,10 @@
         <v>1371</v>
       </c>
       <c r="G107" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="H107" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8645,10 +8603,10 @@
         <v>1382</v>
       </c>
       <c r="G108" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="H108" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8671,10 +8629,10 @@
         <v>1294</v>
       </c>
       <c r="G109" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H109" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8697,10 +8655,10 @@
         <v>1285</v>
       </c>
       <c r="G110" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="H110" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8723,10 +8681,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="H111" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8749,10 +8707,10 @@
         <v>1285</v>
       </c>
       <c r="G112" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="H112" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8778,7 +8736,7 @@
         <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8804,7 +8762,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8827,10 +8785,10 @@
         <v>1383</v>
       </c>
       <c r="G115" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="H115" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8853,10 +8811,10 @@
         <v>1384</v>
       </c>
       <c r="G116" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="H116" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8879,10 +8837,10 @@
         <v>1385</v>
       </c>
       <c r="G117" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="H117" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8905,10 +8863,10 @@
         <v>1386</v>
       </c>
       <c r="G118" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="H118" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8931,10 +8889,10 @@
         <v>1387</v>
       </c>
       <c r="G119" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="H119" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8960,7 +8918,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8986,7 +8944,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1800</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9012,7 +8970,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9038,7 +8996,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9061,10 +9019,10 @@
         <v>1388</v>
       </c>
       <c r="G124" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="H124" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9087,10 +9045,10 @@
         <v>1285</v>
       </c>
       <c r="G125" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H125" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9116,7 +9074,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9139,10 +9097,10 @@
         <v>1294</v>
       </c>
       <c r="G127" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H127" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9162,13 +9120,13 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G128" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="H128" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9191,10 +9149,10 @@
         <v>1389</v>
       </c>
       <c r="G129" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="H129" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9217,10 +9175,10 @@
         <v>1387</v>
       </c>
       <c r="G130" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="H130" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9243,10 +9201,10 @@
         <v>1339</v>
       </c>
       <c r="G131" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="H131" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9269,10 +9227,10 @@
         <v>1338</v>
       </c>
       <c r="G132" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="H132" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9295,10 +9253,10 @@
         <v>1390</v>
       </c>
       <c r="G133" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="H133" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9318,13 +9276,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G134" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="H134" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9350,7 +9308,7 @@
         <v>1065</v>
       </c>
       <c r="H135" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9373,10 +9331,10 @@
         <v>1339</v>
       </c>
       <c r="G136" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="H136" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9396,13 +9354,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G137" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="H137" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9422,13 +9380,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G138" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="H138" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9451,10 +9409,10 @@
         <v>1391</v>
       </c>
       <c r="G139" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="H139" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9474,13 +9432,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G140" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="H140" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9506,7 +9464,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9529,10 +9487,10 @@
         <v>1392</v>
       </c>
       <c r="G142" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="H142" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9555,10 +9513,10 @@
         <v>1362</v>
       </c>
       <c r="G143" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="H143" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9581,10 +9539,10 @@
         <v>1278</v>
       </c>
       <c r="G144" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="H144" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9610,7 +9568,7 @@
         <v>989</v>
       </c>
       <c r="H145" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9630,13 +9588,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G146" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="H146" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9662,7 +9620,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9685,10 +9643,10 @@
         <v>1285</v>
       </c>
       <c r="G148" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="H148" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9707,14 +9665,8 @@
       <c r="E149" t="s">
         <v>1277</v>
       </c>
-      <c r="F149" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G149" t="s">
-        <v>1577</v>
-      </c>
       <c r="H149" t="s">
-        <v>1807</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9734,13 +9686,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1393</v>
+        <v>1351</v>
       </c>
       <c r="G150" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="H150" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9766,7 +9718,7 @@
         <v>996</v>
       </c>
       <c r="H151" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9786,13 +9738,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1342</v>
+        <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="H152" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9812,13 +9764,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G153" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="H153" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9838,13 +9790,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G154" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="H154" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9864,13 +9816,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1349</v>
       </c>
       <c r="G155" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="H155" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9890,13 +9842,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G156" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="H156" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9919,10 +9871,10 @@
         <v>1294</v>
       </c>
       <c r="G157" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H157" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9945,10 +9897,10 @@
         <v>1285</v>
       </c>
       <c r="G158" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="H158" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9968,13 +9920,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G159" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="H159" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9997,10 +9949,10 @@
         <v>1391</v>
       </c>
       <c r="G160" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="H160" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10026,7 +9978,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10046,13 +9998,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G162" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="H162" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10078,7 +10030,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10101,10 +10053,10 @@
         <v>1378</v>
       </c>
       <c r="G164" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="H164" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10124,13 +10076,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1343</v>
+        <v>1395</v>
       </c>
       <c r="G165" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="H165" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10150,13 +10102,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G166" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="H166" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10176,13 +10128,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G167" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="H167" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10205,10 +10157,10 @@
         <v>1396</v>
       </c>
       <c r="G168" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="H168" t="s">
-        <v>1800</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10231,10 +10183,10 @@
         <v>1397</v>
       </c>
       <c r="G169" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="H169" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10257,10 +10209,10 @@
         <v>1398</v>
       </c>
       <c r="G170" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="H170" t="s">
-        <v>1800</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10280,13 +10232,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G171" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="H171" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10309,10 +10261,10 @@
         <v>1285</v>
       </c>
       <c r="G172" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="H172" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10332,13 +10284,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G173" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="H173" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10361,10 +10313,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1597</v>
+        <v>1573</v>
       </c>
       <c r="H174" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10387,10 +10339,10 @@
         <v>1399</v>
       </c>
       <c r="G175" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="H175" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10413,10 +10365,10 @@
         <v>1285</v>
       </c>
       <c r="G176" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="H176" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10436,13 +10388,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G177" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="H177" t="s">
-        <v>1798</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10465,10 +10417,10 @@
         <v>1400</v>
       </c>
       <c r="G178" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="H178" t="s">
-        <v>1809</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10491,10 +10443,10 @@
         <v>1401</v>
       </c>
       <c r="G179" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="H179" t="s">
-        <v>1800</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10517,10 +10469,10 @@
         <v>1402</v>
       </c>
       <c r="G180" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="H180" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10540,13 +10492,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G181" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="H181" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10572,7 +10524,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10595,10 +10547,10 @@
         <v>1285</v>
       </c>
       <c r="G183" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="H183" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10618,13 +10570,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="H184" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10644,13 +10596,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G185" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="H185" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10670,13 +10622,13 @@
         <v>1285</v>
       </c>
       <c r="F186" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G186" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="H186" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10696,13 +10648,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G187" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="H187" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10728,7 +10680,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10748,13 +10700,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G189" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="H189" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10780,7 +10732,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10800,13 +10752,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G191" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="H191" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10829,10 +10781,10 @@
         <v>1372</v>
       </c>
       <c r="G192" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="H192" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10855,10 +10807,10 @@
         <v>1403</v>
       </c>
       <c r="G193" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="H193" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10881,10 +10833,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="H194" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10910,7 +10862,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10930,13 +10882,13 @@
         <v>1285</v>
       </c>
       <c r="F196" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G196" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="H196" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10962,7 +10914,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10985,10 +10937,10 @@
         <v>1285</v>
       </c>
       <c r="G198" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="H198" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11008,13 +10960,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1404</v>
+        <v>1349</v>
       </c>
       <c r="G199" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="H199" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11037,10 +10989,10 @@
         <v>1358</v>
       </c>
       <c r="G200" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="H200" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11060,13 +11012,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G201" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="H201" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11086,13 +11038,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G202" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="H202" t="s">
-        <v>1800</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11115,10 +11067,10 @@
         <v>1339</v>
       </c>
       <c r="G203" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="H203" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11138,13 +11090,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G204" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="H204" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11167,10 +11119,10 @@
         <v>1370</v>
       </c>
       <c r="G205" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="H205" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11190,13 +11142,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G206" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="H206" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11222,7 +11174,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11245,10 +11197,10 @@
         <v>1339</v>
       </c>
       <c r="G208" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="H208" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11274,7 +11226,7 @@
         <v>1046</v>
       </c>
       <c r="H209" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11297,10 +11249,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="H210" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11320,13 +11272,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G211" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="H211" t="s">
-        <v>1810</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11349,10 +11301,10 @@
         <v>1362</v>
       </c>
       <c r="G212" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="H212" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11375,10 +11327,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="H213" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11398,13 +11350,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G214" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="H214" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11424,13 +11376,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G215" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="H215" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11456,7 +11408,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11476,13 +11428,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G217" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
       <c r="H217" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11502,13 +11454,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1405</v>
+        <v>1366</v>
       </c>
       <c r="G218" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="H218" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11531,10 +11483,10 @@
         <v>1278</v>
       </c>
       <c r="G219" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="H219" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11554,13 +11506,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G220" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="H220" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11586,7 +11538,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11606,13 +11558,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G222" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="H222" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11632,13 +11584,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G223" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="H223" t="s">
-        <v>1811</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11658,13 +11610,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G224" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="H224" t="s">
-        <v>1812</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11690,7 +11642,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11716,7 +11668,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11742,7 +11694,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11762,13 +11714,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G228" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="H228" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11788,13 +11740,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G229" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="H229" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11817,10 +11769,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="H230" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11846,7 +11798,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11869,10 +11821,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="H232" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11895,10 +11847,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="H233" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11921,10 +11873,10 @@
         <v>1339</v>
       </c>
       <c r="G234" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="H234" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11944,13 +11896,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1415</v>
+        <v>1341</v>
       </c>
       <c r="G235" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="H235" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11970,13 +11922,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="G236" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="H236" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11996,13 +11948,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
       <c r="G237" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="H237" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12022,13 +11974,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="G238" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="H238" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12048,13 +12000,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G239" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="H239" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12074,13 +12026,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G240" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="H240" t="s">
-        <v>1800</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12103,10 +12055,10 @@
         <v>1285</v>
       </c>
       <c r="G241" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H241" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12129,10 +12081,10 @@
         <v>1362</v>
       </c>
       <c r="G242" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="H242" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12155,10 +12107,10 @@
         <v>1372</v>
       </c>
       <c r="G243" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="H243" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12178,13 +12130,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
       <c r="G244" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="H244" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12207,10 +12159,10 @@
         <v>1372</v>
       </c>
       <c r="G245" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="H245" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12236,7 +12188,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12256,13 +12208,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="G247" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="H247" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12288,7 +12240,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12308,13 +12260,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="G249" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="H249" t="s">
-        <v>1794</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12337,10 +12289,10 @@
         <v>1339</v>
       </c>
       <c r="G250" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="H250" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12360,13 +12312,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1415</v>
+        <v>1341</v>
       </c>
       <c r="G251" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="H251" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12386,13 +12338,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="G252" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="H252" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12412,13 +12364,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G253" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="H253" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12444,7 +12396,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12467,10 +12419,10 @@
         <v>1362</v>
       </c>
       <c r="G255" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="H255" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12493,10 +12445,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="H256" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12516,13 +12468,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G257" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="H257" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12542,13 +12494,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1375</v>
+        <v>1395</v>
       </c>
       <c r="G258" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="H258" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12574,7 +12526,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12597,10 +12549,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="H260" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12623,10 +12575,10 @@
         <v>1391</v>
       </c>
       <c r="G261" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="H261" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12652,7 +12604,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12672,13 +12624,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1397</v>
+        <v>1418</v>
       </c>
       <c r="G263" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="H263" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12701,10 +12653,10 @@
         <v>1386</v>
       </c>
       <c r="G264" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="H264" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12724,13 +12676,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1415</v>
+        <v>1341</v>
       </c>
       <c r="G265" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="H265" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12750,13 +12702,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="G266" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="H266" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12779,10 +12731,10 @@
         <v>1381</v>
       </c>
       <c r="G267" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="H267" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12802,13 +12754,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="G268" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="H268" t="s">
-        <v>1799</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12831,10 +12783,10 @@
         <v>1340</v>
       </c>
       <c r="G269" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="H269" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12860,7 +12812,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12880,13 +12832,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G271" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="H271" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12906,13 +12858,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1343</v>
+        <v>1395</v>
       </c>
       <c r="G272" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="H272" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12932,13 +12884,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1370</v>
+        <v>1422</v>
       </c>
       <c r="G273" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
       <c r="H273" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12958,13 +12910,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G274" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
       <c r="H274" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12984,13 +12936,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G275" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="H275" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13010,13 +12962,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G276" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="H276" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13039,10 +12991,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="H277" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13062,13 +13014,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1428</v>
+        <v>1410</v>
       </c>
       <c r="G278" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
       <c r="H278" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13091,10 +13043,10 @@
         <v>1386</v>
       </c>
       <c r="G279" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="H279" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13114,13 +13066,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1378</v>
+        <v>1278</v>
       </c>
       <c r="G280" t="s">
-        <v>1669</v>
+        <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13146,7 +13098,7 @@
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13166,13 +13118,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="G282" t="s">
-        <v>1670</v>
+        <v>1662</v>
       </c>
       <c r="H282" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13198,7 +13150,7 @@
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13218,13 +13170,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1430</v>
+        <v>1414</v>
       </c>
       <c r="G284" t="s">
-        <v>1671</v>
+        <v>1663</v>
       </c>
       <c r="H284" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13247,10 +13199,10 @@
         <v>1373</v>
       </c>
       <c r="G285" t="s">
-        <v>1672</v>
+        <v>1664</v>
       </c>
       <c r="H285" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13270,13 +13222,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="G286" t="s">
-        <v>1673</v>
+        <v>1665</v>
       </c>
       <c r="H286" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13296,13 +13248,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="G287" t="s">
-        <v>1674</v>
+        <v>1666</v>
       </c>
       <c r="H287" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13325,10 +13277,10 @@
         <v>1285</v>
       </c>
       <c r="G288" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="H288" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13351,10 +13303,10 @@
         <v>1285</v>
       </c>
       <c r="G289" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="H289" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13374,13 +13326,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1397</v>
+        <v>1418</v>
       </c>
       <c r="G290" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="H290" t="s">
-        <v>1799</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13403,10 +13355,10 @@
         <v>1386</v>
       </c>
       <c r="G291" t="s">
-        <v>1676</v>
+        <v>1668</v>
       </c>
       <c r="H291" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13426,13 +13378,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="G292" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="H292" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13452,13 +13404,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="G293" t="s">
-        <v>1678</v>
+        <v>1670</v>
       </c>
       <c r="H293" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13478,13 +13430,13 @@
         <v>1285</v>
       </c>
       <c r="F294" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G294" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="H294" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13510,7 +13462,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13530,13 +13482,13 @@
         <v>1276</v>
       </c>
       <c r="F296" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G296" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="H296" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13559,10 +13511,10 @@
         <v>1285</v>
       </c>
       <c r="G297" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H297" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13582,13 +13534,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1433</v>
+        <v>1395</v>
       </c>
       <c r="G298" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
       <c r="H298" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13608,13 +13560,13 @@
         <v>1276</v>
       </c>
       <c r="F299" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G299" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="H299" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13634,13 +13586,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
       <c r="G300" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="H300" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13663,10 +13615,10 @@
         <v>1391</v>
       </c>
       <c r="G301" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="H301" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13686,13 +13638,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1370</v>
+        <v>1422</v>
       </c>
       <c r="G302" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
       <c r="H302" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13712,13 +13664,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1340</v>
+        <v>1276</v>
       </c>
       <c r="G303" t="s">
-        <v>1684</v>
+        <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13744,7 +13696,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13770,7 +13722,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13790,13 +13742,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G306" t="s">
-        <v>1685</v>
+        <v>1676</v>
       </c>
       <c r="H306" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13822,7 +13774,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13845,10 +13797,10 @@
         <v>1388</v>
       </c>
       <c r="G308" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="H308" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13874,7 +13826,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1792</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13900,7 +13852,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13926,7 +13878,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13946,13 +13898,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G312" t="s">
-        <v>1687</v>
+        <v>1678</v>
       </c>
       <c r="H312" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13972,13 +13924,13 @@
         <v>1276</v>
       </c>
       <c r="F313" t="s">
-        <v>1347</v>
+        <v>1276</v>
       </c>
       <c r="G313" t="s">
-        <v>1688</v>
+        <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14004,7 +13956,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14024,13 +13976,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="G315" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="H315" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14050,13 +14002,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1354</v>
+        <v>1430</v>
       </c>
       <c r="G316" t="s">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="H316" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14076,13 +14028,13 @@
         <v>1276</v>
       </c>
       <c r="F317" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G317" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="H317" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14102,13 +14054,13 @@
         <v>1279</v>
       </c>
       <c r="F318" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G318" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="H318" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14127,8 +14079,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14148,13 +14106,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G320" t="s">
-        <v>1691</v>
+        <v>1681</v>
       </c>
       <c r="H320" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14174,13 +14132,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1344</v>
+        <v>1375</v>
       </c>
       <c r="G321" t="s">
-        <v>1692</v>
+        <v>1682</v>
       </c>
       <c r="H321" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14200,13 +14158,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="G322" t="s">
-        <v>1693</v>
+        <v>1683</v>
       </c>
       <c r="H322" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14226,13 +14184,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1417</v>
+        <v>1397</v>
       </c>
       <c r="G323" t="s">
-        <v>1694</v>
+        <v>1684</v>
       </c>
       <c r="H323" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14252,13 +14210,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1370</v>
+        <v>1422</v>
       </c>
       <c r="G324" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="H324" t="s">
-        <v>1798</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14284,7 +14242,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14310,7 +14268,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14330,13 +14288,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="G327" t="s">
-        <v>1696</v>
+        <v>1686</v>
       </c>
       <c r="H327" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14356,13 +14314,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G328" t="s">
-        <v>1697</v>
+        <v>1687</v>
       </c>
       <c r="H328" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14385,10 +14343,10 @@
         <v>1375</v>
       </c>
       <c r="G329" t="s">
-        <v>1698</v>
+        <v>1688</v>
       </c>
       <c r="H329" t="s">
-        <v>1813</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14411,10 +14369,10 @@
         <v>1285</v>
       </c>
       <c r="G330" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="H330" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14434,13 +14392,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="G331" t="s">
-        <v>1699</v>
+        <v>1689</v>
       </c>
       <c r="H331" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14463,10 +14421,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="H332" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14489,10 +14447,10 @@
         <v>1371</v>
       </c>
       <c r="G333" t="s">
-        <v>1700</v>
+        <v>1690</v>
       </c>
       <c r="H333" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14515,10 +14473,10 @@
         <v>1278</v>
       </c>
       <c r="G334" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="H334" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14538,13 +14496,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="G335" t="s">
-        <v>1702</v>
+        <v>1692</v>
       </c>
       <c r="H335" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14564,13 +14522,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1397</v>
+        <v>1418</v>
       </c>
       <c r="G336" t="s">
-        <v>1703</v>
+        <v>1693</v>
       </c>
       <c r="H336" t="s">
-        <v>1792</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14593,10 +14551,10 @@
         <v>1372</v>
       </c>
       <c r="G337" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="H337" t="s">
-        <v>1798</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14619,10 +14577,10 @@
         <v>1375</v>
       </c>
       <c r="G338" t="s">
-        <v>1705</v>
+        <v>1695</v>
       </c>
       <c r="H338" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14645,10 +14603,10 @@
         <v>1379</v>
       </c>
       <c r="G339" t="s">
-        <v>1706</v>
+        <v>1696</v>
       </c>
       <c r="H339" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14671,10 +14629,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1707</v>
+        <v>1697</v>
       </c>
       <c r="H340" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14697,10 +14655,10 @@
         <v>1375</v>
       </c>
       <c r="G341" t="s">
-        <v>1708</v>
+        <v>1698</v>
       </c>
       <c r="H341" t="s">
-        <v>1814</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14720,13 +14678,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G342" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="H342" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14746,13 +14704,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="G343" t="s">
-        <v>1709</v>
+        <v>1699</v>
       </c>
       <c r="H343" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14772,13 +14730,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="G344" t="s">
-        <v>1710</v>
+        <v>1700</v>
       </c>
       <c r="H344" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14798,13 +14756,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G345" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="H345" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14824,13 +14782,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="G346" t="s">
-        <v>1711</v>
+        <v>1701</v>
       </c>
       <c r="H346" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14850,13 +14808,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G347" t="s">
-        <v>1712</v>
+        <v>1702</v>
       </c>
       <c r="H347" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14882,7 +14840,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14908,7 +14866,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14928,13 +14886,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G350" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="H350" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14954,13 +14912,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="G351" t="s">
-        <v>1713</v>
+        <v>1703</v>
       </c>
       <c r="H351" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14980,13 +14938,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="G352" t="s">
-        <v>1714</v>
+        <v>1704</v>
       </c>
       <c r="H352" t="s">
-        <v>1802</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15012,7 +14970,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15032,13 +14990,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1417</v>
+        <v>1276</v>
       </c>
       <c r="G354" t="s">
-        <v>1715</v>
+        <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15061,10 +15019,10 @@
         <v>1278</v>
       </c>
       <c r="G355" t="s">
-        <v>1701</v>
+        <v>1691</v>
       </c>
       <c r="H355" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15090,7 +15048,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15110,13 +15068,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="G357" t="s">
-        <v>1716</v>
+        <v>1705</v>
       </c>
       <c r="H357" t="s">
-        <v>1815</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15136,13 +15094,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G358" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="H358" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15165,10 +15123,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H359" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15194,7 +15152,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15214,13 +15172,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1444</v>
+        <v>1339</v>
       </c>
       <c r="G361" t="s">
-        <v>1717</v>
+        <v>1523</v>
       </c>
       <c r="H361" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15243,10 +15201,10 @@
         <v>1285</v>
       </c>
       <c r="G362" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="H362" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15266,13 +15224,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="G363" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="H363" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15292,13 +15250,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="G364" t="s">
-        <v>1719</v>
+        <v>1707</v>
       </c>
       <c r="H364" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15321,10 +15279,10 @@
         <v>1359</v>
       </c>
       <c r="G365" t="s">
-        <v>1720</v>
+        <v>1708</v>
       </c>
       <c r="H365" t="s">
-        <v>1816</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15344,13 +15302,13 @@
         <v>1294</v>
       </c>
       <c r="F366" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G366" t="s">
-        <v>1687</v>
+        <v>1678</v>
       </c>
       <c r="H366" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15373,10 +15331,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="H367" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15396,13 +15354,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G368" t="s">
-        <v>1721</v>
+        <v>1709</v>
       </c>
       <c r="H368" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15425,10 +15383,10 @@
         <v>1339</v>
       </c>
       <c r="G369" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H369" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15447,14 +15405,8 @@
       <c r="E370" t="s">
         <v>1285</v>
       </c>
-      <c r="F370" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G370" t="s">
-        <v>1577</v>
-      </c>
       <c r="H370" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15474,13 +15426,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1370</v>
+        <v>1422</v>
       </c>
       <c r="G371" t="s">
-        <v>1722</v>
+        <v>1710</v>
       </c>
       <c r="H371" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15503,10 +15455,10 @@
         <v>1391</v>
       </c>
       <c r="G372" t="s">
-        <v>1723</v>
+        <v>1711</v>
       </c>
       <c r="H372" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15526,13 +15478,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1447</v>
+        <v>1401</v>
       </c>
       <c r="G373" t="s">
-        <v>1724</v>
+        <v>1712</v>
       </c>
       <c r="H373" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15552,7 +15504,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15578,7 +15530,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15598,13 +15550,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="G376" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="H376" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15624,13 +15576,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G377" t="s">
-        <v>1726</v>
+        <v>1714</v>
       </c>
       <c r="H377" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15650,13 +15602,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1342</v>
+        <v>1444</v>
       </c>
       <c r="G378" t="s">
-        <v>1727</v>
+        <v>1715</v>
       </c>
       <c r="H378" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15676,13 +15628,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="G379" t="s">
-        <v>1728</v>
+        <v>1716</v>
       </c>
       <c r="H379" t="s">
-        <v>1800</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15702,13 +15654,13 @@
         <v>1285</v>
       </c>
       <c r="F380" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G380" t="s">
-        <v>1729</v>
+        <v>1717</v>
       </c>
       <c r="H380" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15731,10 +15683,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="H381" t="s">
-        <v>1792</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15754,13 +15706,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="G382" t="s">
-        <v>1730</v>
+        <v>1718</v>
       </c>
       <c r="H382" t="s">
-        <v>1817</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15780,13 +15732,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="G383" t="s">
-        <v>1731</v>
+        <v>1719</v>
       </c>
       <c r="H383" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15806,13 +15758,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="G384" t="s">
-        <v>1732</v>
+        <v>1720</v>
       </c>
       <c r="H384" t="s">
-        <v>1792</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15832,13 +15784,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1370</v>
+        <v>1422</v>
       </c>
       <c r="G385" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="H385" t="s">
-        <v>1807</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15858,13 +15810,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="G386" t="s">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="H386" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15884,13 +15836,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1370</v>
+        <v>1422</v>
       </c>
       <c r="G387" t="s">
-        <v>1734</v>
+        <v>1722</v>
       </c>
       <c r="H387" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15910,13 +15862,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G388" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="H388" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15936,13 +15888,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G389" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="H389" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15965,10 +15917,10 @@
         <v>1380</v>
       </c>
       <c r="G390" t="s">
-        <v>1735</v>
+        <v>1723</v>
       </c>
       <c r="H390" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15988,13 +15940,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G391" t="s">
-        <v>1736</v>
+        <v>1724</v>
       </c>
       <c r="H391" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16014,13 +15966,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G392" t="s">
-        <v>1737</v>
+        <v>1725</v>
       </c>
       <c r="H392" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16043,10 +15995,10 @@
         <v>1381</v>
       </c>
       <c r="G393" t="s">
-        <v>1738</v>
+        <v>1726</v>
       </c>
       <c r="H393" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16066,13 +16018,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1343</v>
+        <v>1395</v>
       </c>
       <c r="G394" t="s">
-        <v>1739</v>
+        <v>1727</v>
       </c>
       <c r="H394" t="s">
-        <v>1802</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16095,10 +16047,10 @@
         <v>1338</v>
       </c>
       <c r="G395" t="s">
-        <v>1740</v>
+        <v>1728</v>
       </c>
       <c r="H395" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16118,13 +16070,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1345</v>
+        <v>1391</v>
       </c>
       <c r="G396" t="s">
-        <v>1741</v>
+        <v>1729</v>
       </c>
       <c r="H396" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16144,13 +16096,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="G397" t="s">
-        <v>1742</v>
+        <v>1730</v>
       </c>
       <c r="H397" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16176,7 +16128,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16199,10 +16151,10 @@
         <v>1338</v>
       </c>
       <c r="G399" t="s">
-        <v>1743</v>
+        <v>1731</v>
       </c>
       <c r="H399" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16222,13 +16174,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="G400" t="s">
-        <v>1744</v>
+        <v>1732</v>
       </c>
       <c r="H400" t="s">
-        <v>1818</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16254,7 +16206,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16274,13 +16226,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1370</v>
+        <v>1422</v>
       </c>
       <c r="G402" t="s">
-        <v>1745</v>
+        <v>1733</v>
       </c>
       <c r="H402" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16303,10 +16255,10 @@
         <v>1391</v>
       </c>
       <c r="G403" t="s">
-        <v>1746</v>
+        <v>1734</v>
       </c>
       <c r="H403" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16326,13 +16278,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G404" t="s">
-        <v>1747</v>
+        <v>1735</v>
       </c>
       <c r="H404" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16355,10 +16307,10 @@
         <v>1358</v>
       </c>
       <c r="G405" t="s">
-        <v>1748</v>
+        <v>1736</v>
       </c>
       <c r="H405" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16384,7 +16336,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16404,13 +16356,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="G407" t="s">
-        <v>1749</v>
+        <v>1737</v>
       </c>
       <c r="H407" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16433,10 +16385,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="H408" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16462,7 +16414,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16488,7 +16440,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16511,10 +16463,10 @@
         <v>1381</v>
       </c>
       <c r="G411" t="s">
-        <v>1750</v>
+        <v>1738</v>
       </c>
       <c r="H411" t="s">
-        <v>1805</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16537,10 +16489,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="H412" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16560,13 +16512,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1370</v>
+        <v>1422</v>
       </c>
       <c r="G413" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="H413" t="s">
-        <v>1804</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16586,13 +16538,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G414" t="s">
-        <v>1751</v>
+        <v>1739</v>
       </c>
       <c r="H414" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16615,10 +16567,10 @@
         <v>1388</v>
       </c>
       <c r="G415" t="s">
-        <v>1752</v>
+        <v>1740</v>
       </c>
       <c r="H415" t="s">
-        <v>1819</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16638,13 +16590,13 @@
         <v>1285</v>
       </c>
       <c r="F416" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="G416" t="s">
-        <v>1753</v>
+        <v>1741</v>
       </c>
       <c r="H416" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16667,10 +16619,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="H417" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16690,13 +16642,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1404</v>
+        <v>1453</v>
       </c>
       <c r="G418" t="s">
-        <v>1754</v>
+        <v>1742</v>
       </c>
       <c r="H418" t="s">
-        <v>1806</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16716,13 +16668,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1370</v>
+        <v>1422</v>
       </c>
       <c r="G419" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="H419" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16742,13 +16694,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="G420" t="s">
-        <v>1755</v>
+        <v>1743</v>
       </c>
       <c r="H420" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16771,10 +16723,10 @@
         <v>1391</v>
       </c>
       <c r="G421" t="s">
-        <v>1756</v>
+        <v>1744</v>
       </c>
       <c r="H421" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16794,13 +16746,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1370</v>
+        <v>1422</v>
       </c>
       <c r="G422" t="s">
-        <v>1695</v>
+        <v>1685</v>
       </c>
       <c r="H422" t="s">
-        <v>1793</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16826,7 +16778,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16852,7 +16804,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16875,10 +16827,10 @@
         <v>1391</v>
       </c>
       <c r="G425" t="s">
-        <v>1757</v>
+        <v>1745</v>
       </c>
       <c r="H425" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16898,13 +16850,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G426" t="s">
-        <v>1758</v>
+        <v>1746</v>
       </c>
       <c r="H426" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16924,13 +16876,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1344</v>
+        <v>1285</v>
       </c>
       <c r="G427" t="s">
-        <v>1759</v>
+        <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16953,10 +16905,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
       <c r="H428" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16979,10 +16931,10 @@
         <v>1285</v>
       </c>
       <c r="G429" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H429" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17002,13 +16954,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G430" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
       <c r="H430" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17028,13 +16980,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G431" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
       <c r="H431" t="s">
-        <v>1820</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17060,7 +17012,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17080,13 +17032,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="G433" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
       <c r="H433" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17106,13 +17058,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G434" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="H434" t="s">
-        <v>1816</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17132,13 +17084,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="G435" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
       <c r="H435" t="s">
-        <v>1807</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17161,10 +17113,10 @@
         <v>1340</v>
       </c>
       <c r="G436" t="s">
-        <v>1765</v>
+        <v>1752</v>
       </c>
       <c r="H436" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17184,13 +17136,13 @@
         <v>1294</v>
       </c>
       <c r="F437" t="s">
-        <v>1343</v>
+        <v>1285</v>
       </c>
       <c r="G437" t="s">
-        <v>1766</v>
+        <v>1469</v>
       </c>
       <c r="H437" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17216,7 +17168,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17236,13 +17188,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1370</v>
+        <v>1422</v>
       </c>
       <c r="G439" t="s">
-        <v>1767</v>
+        <v>1753</v>
       </c>
       <c r="H439" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17265,10 +17217,10 @@
         <v>1359</v>
       </c>
       <c r="G440" t="s">
-        <v>1768</v>
+        <v>1754</v>
       </c>
       <c r="H440" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17288,13 +17240,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="G441" t="s">
-        <v>1769</v>
+        <v>1755</v>
       </c>
       <c r="H441" t="s">
-        <v>1792</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17314,13 +17266,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="G442" t="s">
-        <v>1770</v>
+        <v>1756</v>
       </c>
       <c r="H442" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17340,13 +17292,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1381</v>
+        <v>1358</v>
       </c>
       <c r="G443" t="s">
-        <v>1771</v>
+        <v>1757</v>
       </c>
       <c r="H443" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17369,10 +17321,10 @@
         <v>1387</v>
       </c>
       <c r="G444" t="s">
-        <v>1772</v>
+        <v>1758</v>
       </c>
       <c r="H444" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17392,13 +17344,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="G445" t="s">
-        <v>1773</v>
+        <v>1759</v>
       </c>
       <c r="H445" t="s">
-        <v>1821</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17418,13 +17370,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1464</v>
+        <v>1443</v>
       </c>
       <c r="G446" t="s">
-        <v>1774</v>
+        <v>1760</v>
       </c>
       <c r="H446" t="s">
-        <v>1795</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17447,10 +17399,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1775</v>
+        <v>1761</v>
       </c>
       <c r="H447" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17473,10 +17425,10 @@
         <v>1387</v>
       </c>
       <c r="G448" t="s">
-        <v>1776</v>
+        <v>1762</v>
       </c>
       <c r="H448" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17496,13 +17448,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G449" t="s">
-        <v>1777</v>
+        <v>1763</v>
       </c>
       <c r="H449" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17522,13 +17474,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G450" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="H450" t="s">
-        <v>1790</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17548,13 +17500,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G451" t="s">
-        <v>1778</v>
+        <v>1764</v>
       </c>
       <c r="H451" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17574,13 +17526,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1370</v>
+        <v>1422</v>
       </c>
       <c r="G452" t="s">
-        <v>1779</v>
+        <v>1765</v>
       </c>
       <c r="H452" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17600,13 +17552,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="G453" t="s">
-        <v>1780</v>
+        <v>1766</v>
       </c>
       <c r="H453" t="s">
-        <v>1791</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17626,13 +17578,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="G454" t="s">
-        <v>1781</v>
+        <v>1767</v>
       </c>
       <c r="H454" t="s">
-        <v>1808</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17652,13 +17604,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="G455" t="s">
-        <v>1782</v>
+        <v>1768</v>
       </c>
       <c r="H455" t="s">
-        <v>1813</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17678,13 +17630,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="G456" t="s">
-        <v>1783</v>
+        <v>1769</v>
       </c>
       <c r="H456" t="s">
-        <v>1811</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17704,13 +17656,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G457" t="s">
-        <v>1784</v>
+        <v>1770</v>
       </c>
       <c r="H457" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17736,7 +17688,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1822</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17759,10 +17711,10 @@
         <v>1359</v>
       </c>
       <c r="G459" t="s">
-        <v>1785</v>
+        <v>1771</v>
       </c>
       <c r="H459" t="s">
-        <v>1788</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17785,10 +17737,10 @@
         <v>1340</v>
       </c>
       <c r="G460" t="s">
-        <v>1786</v>
+        <v>1772</v>
       </c>
       <c r="H460" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17808,13 +17760,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1343</v>
+        <v>1395</v>
       </c>
       <c r="G461" t="s">
-        <v>1787</v>
+        <v>1773</v>
       </c>
       <c r="H461" t="s">
-        <v>1803</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17840,7 +17792,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1789</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17863,10 +17815,10 @@
         <v>1388</v>
       </c>
       <c r="G463" t="s">
-        <v>1686</v>
+        <v>1677</v>
       </c>
       <c r="H463" t="s">
-        <v>1792</v>
+        <v>1778</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/lda2vec-partial-ner-elmo_ori-money.xlsx
+++ b/Results/Categorization/lda2vec-partial-ner-elmo_ori-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1796">
   <si>
     <t>id</t>
   </si>
@@ -4027,388 +4027,349 @@
     <t>FOOD,PRICES,FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|PRICES|FOOD|AMBIENCE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|FOOD|PRICES|PRICES</t>
   </si>
   <si>
     <t>FOOD|PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|AMBIENCE|FOOD|FOOD|SERVICE|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+    <t>SERVICE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>place|rude|like|staff</t>
@@ -4480,7 +4441,7 @@
     <t>worth|menu</t>
   </si>
   <si>
-    <t>food|fresh|$6!-</t>
+    <t>food|fresh|$6</t>
   </si>
   <si>
     <t>dish|great</t>
@@ -4567,7 +4528,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>food|wait</t>
@@ -4636,7 +4597,7 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>overpriced|price|$8.00!-</t>
+    <t>overpriced|price|$8.00</t>
   </si>
   <si>
     <t>well|always|wine|price</t>
@@ -4768,7 +4729,7 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>menu|food|$18!-</t>
+    <t>menu|food|$18</t>
   </si>
   <si>
     <t>service|food|great|price</t>
@@ -4777,7 +4738,7 @@
     <t>atmosphere|wait</t>
   </si>
   <si>
-    <t>dish|reasonable|price|$3-6!-</t>
+    <t>dish|reasonable|price|$3-6</t>
   </si>
   <si>
     <t>well|great</t>
@@ -4849,7 +4810,7 @@
     <t>overpriced|restaurant|menu|wine|price</t>
   </si>
   <si>
-    <t>wine|$70!-|$30!-</t>
+    <t>wine|$70|$30</t>
   </si>
   <si>
     <t>service|would|price</t>
@@ -4951,7 +4912,7 @@
     <t>rude|restaurant</t>
   </si>
   <si>
-    <t>like|$7!-</t>
+    <t>like|$7</t>
   </si>
   <si>
     <t>seats|wall|benches</t>
@@ -4972,7 +4933,7 @@
     <t>good|though|food|price</t>
   </si>
   <si>
-    <t>good|though|price|$24!-</t>
+    <t>good|though|price|$24</t>
   </si>
   <si>
     <t>wait|special</t>
@@ -4981,7 +4942,7 @@
     <t>food|nice|wait</t>
   </si>
   <si>
-    <t>great|$10!-</t>
+    <t>great|$10</t>
   </si>
   <si>
     <t>wine|price</t>
@@ -5062,7 +5023,7 @@
     <t>place|well</t>
   </si>
   <si>
-    <t>like|great|100 dollar!-</t>
+    <t>like|great|100 dollar</t>
   </si>
   <si>
     <t>worth|great</t>
@@ -5074,13 +5035,13 @@
     <t>food|price</t>
   </si>
   <si>
-    <t>wait|staff|$*!-</t>
+    <t>wait|staff|$*</t>
   </si>
   <si>
     <t>best|atmosphere</t>
   </si>
   <si>
-    <t>great|great|$8.50!-</t>
+    <t>great|great|$8.50</t>
   </si>
   <si>
     <t>make|good|reasonable|back|price</t>
@@ -5182,10 +5143,10 @@
     <t>decor|reasonable|food|nice|price</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
-  </si>
-  <si>
-    <t>overpriced|price|$15!-</t>
+    <t>sushi|$20</t>
+  </si>
+  <si>
+    <t>overpriced|price|$15</t>
   </si>
   <si>
     <t>restaurant|really</t>
@@ -5194,7 +5155,7 @@
     <t>feel|like</t>
   </si>
   <si>
-    <t>good|though|meal|$60!-</t>
+    <t>good|though|meal|$60</t>
   </si>
   <si>
     <t>place|worth</t>
@@ -5215,19 +5176,19 @@
     <t>overpriced|service|food|price</t>
   </si>
   <si>
-    <t>dinner|$400.00!-</t>
+    <t>dinner|$400.00</t>
   </si>
   <si>
     <t>back|really|nice</t>
   </si>
   <si>
-    <t>plate|guacamole|$11!-</t>
+    <t>plate|guacamole|$11</t>
   </si>
   <si>
     <t>place|good|food</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>friendly|good|food|price</t>
@@ -5254,10 +5215,10 @@
     <t>make|atmosphere|nice</t>
   </si>
   <si>
-    <t>service|dish|price|$10!-</t>
-  </si>
-  <si>
-    <t>dinner|wine|$500!-</t>
+    <t>service|dish|price|$10</t>
+  </si>
+  <si>
+    <t>dinner|wine|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5272,13 +5233,13 @@
     <t>environment|lot|guys|trophy|wives|escorts</t>
   </si>
   <si>
-    <t>service|$500!-</t>
-  </si>
-  <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>would|dinner|$55!-</t>
+    <t>service|$500</t>
+  </si>
+  <si>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>would|dinner|$55</t>
   </si>
   <si>
     <t>would|good|dinner|food</t>
@@ -5293,10 +5254,10 @@
     <t>good|food|fresh</t>
   </si>
   <si>
-    <t>place|would|feel|restaurant|price|$25!-</t>
-  </si>
-  <si>
-    <t>place|food|$!-</t>
+    <t>place|would|feel|restaurant|price|$25</t>
+  </si>
+  <si>
+    <t>place|food|$</t>
   </si>
   <si>
     <t>worth</t>
@@ -5305,19 +5266,19 @@
     <t>place|dinner|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
+    <t>stone|bowl|$2</t>
   </si>
   <si>
     <t>sushi|restaurant|romantic</t>
   </si>
   <si>
-    <t>menu|$29!-</t>
+    <t>menu|$29</t>
   </si>
   <si>
     <t>good|reasonable|great|price</t>
   </si>
   <si>
-    <t>service|rude|well|$500!-</t>
+    <t>service|rude|well|$500</t>
   </si>
   <si>
     <t>service|good|fresh|great|meal</t>
@@ -5326,13 +5287,13 @@
     <t>would|good|food|back|price</t>
   </si>
   <si>
-    <t>never|restaurant|$24!-</t>
+    <t>never|restaurant|$24</t>
   </si>
   <si>
     <t>would|menu|reasonable</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>place|price</t>
@@ -5847,10 +5808,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1465</v>
+        <v>1452</v>
       </c>
       <c r="H2" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5876,7 +5837,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5899,10 +5860,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1466</v>
+        <v>1453</v>
       </c>
       <c r="H4" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5922,13 +5883,13 @@
         <v>1277</v>
       </c>
       <c r="F5" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G5" t="s">
-        <v>1467</v>
+        <v>1454</v>
       </c>
       <c r="H5" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5951,10 +5912,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1468</v>
+        <v>1455</v>
       </c>
       <c r="H6" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5974,13 +5935,13 @@
         <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G7" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="H7" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6000,13 +5961,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G8" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
       <c r="H8" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6029,10 +5990,10 @@
         <v>1340</v>
       </c>
       <c r="G9" t="s">
-        <v>1471</v>
+        <v>1458</v>
       </c>
       <c r="H9" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6055,10 +6016,10 @@
         <v>1341</v>
       </c>
       <c r="G10" t="s">
-        <v>1472</v>
+        <v>1459</v>
       </c>
       <c r="H10" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6078,13 +6039,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G11" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="H11" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6110,7 +6071,7 @@
         <v>933</v>
       </c>
       <c r="H12" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6130,13 +6091,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G13" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="H13" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6156,13 +6117,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="G14" t="s">
-        <v>1474</v>
+        <v>1461</v>
       </c>
       <c r="H14" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6182,13 +6143,13 @@
         <v>1283</v>
       </c>
       <c r="F15" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G15" t="s">
-        <v>1475</v>
+        <v>1462</v>
       </c>
       <c r="H15" t="s">
-        <v>1780</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6208,13 +6169,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="G16" t="s">
-        <v>1476</v>
+        <v>1463</v>
       </c>
       <c r="H16" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6234,13 +6195,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="G17" t="s">
-        <v>1477</v>
+        <v>1464</v>
       </c>
       <c r="H17" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6260,13 +6221,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G18" t="s">
-        <v>1478</v>
+        <v>1465</v>
       </c>
       <c r="H18" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6292,7 +6253,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6315,10 +6276,10 @@
         <v>1345</v>
       </c>
       <c r="G20" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
       <c r="H20" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6338,13 +6299,13 @@
         <v>1285</v>
       </c>
       <c r="F21" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G21" t="s">
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6370,7 +6331,7 @@
         <v>947</v>
       </c>
       <c r="H22" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6393,10 +6354,10 @@
         <v>1346</v>
       </c>
       <c r="G23" t="s">
-        <v>1480</v>
+        <v>1467</v>
       </c>
       <c r="H23" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6416,13 +6377,13 @@
         <v>1278</v>
       </c>
       <c r="F24" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G24" t="s">
-        <v>1481</v>
+        <v>1468</v>
       </c>
       <c r="H24" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6448,7 +6409,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6468,13 +6429,13 @@
         <v>1278</v>
       </c>
       <c r="F26" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G26" t="s">
-        <v>1482</v>
+        <v>1469</v>
       </c>
       <c r="H26" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6494,13 +6455,13 @@
         <v>1277</v>
       </c>
       <c r="F27" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G27" t="s">
-        <v>1483</v>
+        <v>1470</v>
       </c>
       <c r="H27" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6520,13 +6481,13 @@
         <v>1278</v>
       </c>
       <c r="F28" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G28" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="H28" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6546,13 +6507,13 @@
         <v>1279</v>
       </c>
       <c r="F29" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G29" t="s">
-        <v>1485</v>
+        <v>1472</v>
       </c>
       <c r="H29" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6572,13 +6533,13 @@
         <v>1284</v>
       </c>
       <c r="F30" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="G30" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="H30" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6598,13 +6559,13 @@
         <v>1286</v>
       </c>
       <c r="F31" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="G31" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="H31" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6624,13 +6585,13 @@
         <v>1286</v>
       </c>
       <c r="F32" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="G32" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="H32" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6650,13 +6611,13 @@
         <v>1278</v>
       </c>
       <c r="F33" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G33" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="H33" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6676,13 +6637,13 @@
         <v>1284</v>
       </c>
       <c r="F34" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="G34" t="s">
-        <v>1490</v>
+        <v>1477</v>
       </c>
       <c r="H34" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6705,10 +6666,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="H35" t="s">
-        <v>1782</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6728,13 +6689,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G36" t="s">
-        <v>1492</v>
+        <v>1479</v>
       </c>
       <c r="H36" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6754,13 +6715,13 @@
         <v>1276</v>
       </c>
       <c r="F37" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G37" t="s">
-        <v>1467</v>
+        <v>1454</v>
       </c>
       <c r="H37" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6780,13 +6741,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="G38" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="H38" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6806,13 +6767,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="G39" t="s">
-        <v>1494</v>
+        <v>1481</v>
       </c>
       <c r="H39" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6832,13 +6793,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="G40" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="H40" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6858,13 +6819,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="G41" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="H41" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6884,13 +6845,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G42" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="H42" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6910,13 +6871,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="G43" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="H43" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6942,7 +6903,7 @@
         <v>968</v>
       </c>
       <c r="H44" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6968,7 +6929,7 @@
         <v>933</v>
       </c>
       <c r="H45" t="s">
-        <v>1783</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6991,10 +6952,10 @@
         <v>1339</v>
       </c>
       <c r="G46" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="H46" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7020,7 +6981,7 @@
         <v>989</v>
       </c>
       <c r="H47" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7040,13 +7001,13 @@
         <v>1279</v>
       </c>
       <c r="F48" t="s">
-        <v>1359</v>
+        <v>1338</v>
       </c>
       <c r="G48" t="s">
-        <v>1500</v>
+        <v>1487</v>
       </c>
       <c r="H48" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7069,10 +7030,10 @@
         <v>1338</v>
       </c>
       <c r="G49" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="H49" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7095,10 +7056,10 @@
         <v>1339</v>
       </c>
       <c r="G50" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="H50" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7118,13 +7079,13 @@
         <v>1282</v>
       </c>
       <c r="F51" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="G51" t="s">
-        <v>1503</v>
+        <v>1490</v>
       </c>
       <c r="H51" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7144,13 +7105,13 @@
         <v>1278</v>
       </c>
       <c r="F52" t="s">
-        <v>1361</v>
+        <v>1346</v>
       </c>
       <c r="G52" t="s">
-        <v>1504</v>
+        <v>1491</v>
       </c>
       <c r="H52" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7170,13 +7131,13 @@
         <v>1277</v>
       </c>
       <c r="F53" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="G53" t="s">
-        <v>1505</v>
+        <v>1492</v>
       </c>
       <c r="H53" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7196,13 +7157,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1362</v>
+        <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1506</v>
+        <v>1493</v>
       </c>
       <c r="H54" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7222,13 +7183,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="G55" t="s">
-        <v>1507</v>
+        <v>1494</v>
       </c>
       <c r="H55" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7248,13 +7209,13 @@
         <v>1291</v>
       </c>
       <c r="F56" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G56" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="H56" t="s">
-        <v>1787</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7274,13 +7235,13 @@
         <v>1276</v>
       </c>
       <c r="F57" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="G57" t="s">
-        <v>1509</v>
+        <v>1496</v>
       </c>
       <c r="H57" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7300,13 +7261,13 @@
         <v>1279</v>
       </c>
       <c r="F58" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G58" t="s">
-        <v>1510</v>
+        <v>1497</v>
       </c>
       <c r="H58" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7326,13 +7287,13 @@
         <v>1292</v>
       </c>
       <c r="F59" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="G59" t="s">
-        <v>1511</v>
+        <v>1498</v>
       </c>
       <c r="H59" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7352,13 +7313,13 @@
         <v>1276</v>
       </c>
       <c r="F60" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G60" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
       <c r="H60" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7384,7 +7345,7 @@
         <v>933</v>
       </c>
       <c r="H61" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7404,13 +7365,13 @@
         <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="G62" t="s">
-        <v>1512</v>
+        <v>1499</v>
       </c>
       <c r="H62" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7430,13 +7391,13 @@
         <v>1276</v>
       </c>
       <c r="F63" t="s">
-        <v>1368</v>
+        <v>1345</v>
       </c>
       <c r="G63" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="H63" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7456,13 +7417,13 @@
         <v>1278</v>
       </c>
       <c r="F64" t="s">
-        <v>1369</v>
+        <v>1351</v>
       </c>
       <c r="G64" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
       <c r="H64" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7482,13 +7443,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G65" t="s">
-        <v>1478</v>
+        <v>1465</v>
       </c>
       <c r="H65" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7508,13 +7469,13 @@
         <v>1276</v>
       </c>
       <c r="F66" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G66" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="H66" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7534,13 +7495,13 @@
         <v>1293</v>
       </c>
       <c r="F67" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G67" t="s">
-        <v>1516</v>
+        <v>1503</v>
       </c>
       <c r="H67" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7566,7 +7527,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7586,13 +7547,13 @@
         <v>1295</v>
       </c>
       <c r="F69" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="G69" t="s">
-        <v>1517</v>
+        <v>1504</v>
       </c>
       <c r="H69" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7612,13 +7573,13 @@
         <v>1278</v>
       </c>
       <c r="F70" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="H70" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7644,7 +7605,7 @@
         <v>933</v>
       </c>
       <c r="H71" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7664,13 +7625,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="G72" t="s">
-        <v>1518</v>
+        <v>1505</v>
       </c>
       <c r="H72" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7690,13 +7651,13 @@
         <v>1276</v>
       </c>
       <c r="F73" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="G73" t="s">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="H73" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7716,13 +7677,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1373</v>
+        <v>1348</v>
       </c>
       <c r="G74" t="s">
-        <v>1520</v>
+        <v>1507</v>
       </c>
       <c r="H74" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7748,7 +7709,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7768,13 +7729,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G76" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="H76" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7797,10 +7758,10 @@
         <v>1339</v>
       </c>
       <c r="G77" t="s">
-        <v>1522</v>
+        <v>1509</v>
       </c>
       <c r="H77" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7820,13 +7781,13 @@
         <v>1289</v>
       </c>
       <c r="F78" t="s">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="G78" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="H78" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7846,13 +7807,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G79" t="s">
-        <v>1524</v>
+        <v>1511</v>
       </c>
       <c r="H79" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7872,13 +7833,13 @@
         <v>1277</v>
       </c>
       <c r="F80" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="G80" t="s">
-        <v>1525</v>
+        <v>1512</v>
       </c>
       <c r="H80" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7901,10 +7862,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="H81" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7924,13 +7885,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="G82" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="H82" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7956,7 +7917,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7982,7 +7943,7 @@
         <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8005,10 +7966,10 @@
         <v>1339</v>
       </c>
       <c r="G85" t="s">
-        <v>1528</v>
+        <v>1515</v>
       </c>
       <c r="H85" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8031,10 +7992,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="H86" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8054,13 +8015,13 @@
         <v>1285</v>
       </c>
       <c r="F87" t="s">
-        <v>1347</v>
+        <v>1370</v>
       </c>
       <c r="G87" t="s">
-        <v>1530</v>
+        <v>1517</v>
       </c>
       <c r="H87" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8080,13 +8041,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1362</v>
+        <v>1344</v>
       </c>
       <c r="G88" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="H88" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8106,13 +8067,13 @@
         <v>1278</v>
       </c>
       <c r="F89" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G89" t="s">
-        <v>1532</v>
+        <v>1519</v>
       </c>
       <c r="H89" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8138,7 +8099,7 @@
         <v>968</v>
       </c>
       <c r="H90" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8158,13 +8119,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1376</v>
+        <v>1371</v>
       </c>
       <c r="G91" t="s">
-        <v>1533</v>
+        <v>1520</v>
       </c>
       <c r="H91" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8184,13 +8145,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1358</v>
+        <v>1338</v>
       </c>
       <c r="G92" t="s">
-        <v>1534</v>
+        <v>1521</v>
       </c>
       <c r="H92" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8210,13 +8171,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="G93" t="s">
-        <v>1535</v>
+        <v>1522</v>
       </c>
       <c r="H93" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8236,13 +8197,13 @@
         <v>1289</v>
       </c>
       <c r="F94" t="s">
-        <v>1378</v>
+        <v>1338</v>
       </c>
       <c r="G94" t="s">
-        <v>1536</v>
+        <v>1523</v>
       </c>
       <c r="H94" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8262,13 +8223,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="G95" t="s">
-        <v>1537</v>
+        <v>1524</v>
       </c>
       <c r="H95" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8288,13 +8249,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G96" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="H96" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8314,13 +8275,13 @@
         <v>1277</v>
       </c>
       <c r="F97" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G97" t="s">
-        <v>1539</v>
+        <v>1526</v>
       </c>
       <c r="H97" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8340,13 +8301,13 @@
         <v>1276</v>
       </c>
       <c r="F98" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G98" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
       <c r="H98" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8366,13 +8327,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1380</v>
+        <v>1350</v>
       </c>
       <c r="G99" t="s">
-        <v>1540</v>
+        <v>1527</v>
       </c>
       <c r="H99" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8392,13 +8353,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="G100" t="s">
-        <v>1541</v>
+        <v>1528</v>
       </c>
       <c r="H100" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8418,13 +8379,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G101" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="H101" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8444,13 +8405,13 @@
         <v>1285</v>
       </c>
       <c r="F102" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="G102" t="s">
-        <v>1542</v>
+        <v>1529</v>
       </c>
       <c r="H102" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8470,13 +8431,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1349</v>
+        <v>1367</v>
       </c>
       <c r="G103" t="s">
-        <v>1543</v>
+        <v>1530</v>
       </c>
       <c r="H103" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8496,13 +8457,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G104" t="s">
-        <v>1544</v>
+        <v>1531</v>
       </c>
       <c r="H104" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8528,7 +8489,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8548,13 +8509,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="G106" t="s">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="H106" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8574,13 +8535,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="G107" t="s">
-        <v>1546</v>
+        <v>1533</v>
       </c>
       <c r="H107" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8600,13 +8561,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="G108" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="H108" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8626,13 +8587,13 @@
         <v>1298</v>
       </c>
       <c r="F109" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G109" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="H109" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8652,13 +8613,13 @@
         <v>1276</v>
       </c>
       <c r="F110" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G110" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="H110" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8681,10 +8642,10 @@
         <v>1339</v>
       </c>
       <c r="G111" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="H111" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8707,10 +8668,10 @@
         <v>1285</v>
       </c>
       <c r="G112" t="s">
-        <v>1539</v>
+        <v>1526</v>
       </c>
       <c r="H112" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8736,7 +8697,7 @@
         <v>1065</v>
       </c>
       <c r="H113" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8762,7 +8723,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8782,13 +8743,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="G115" t="s">
-        <v>1550</v>
+        <v>1537</v>
       </c>
       <c r="H115" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8808,13 +8769,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1384</v>
+        <v>1346</v>
       </c>
       <c r="G116" t="s">
-        <v>1551</v>
+        <v>1538</v>
       </c>
       <c r="H116" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8834,13 +8795,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1385</v>
+        <v>1338</v>
       </c>
       <c r="G117" t="s">
-        <v>1552</v>
+        <v>1539</v>
       </c>
       <c r="H117" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8860,13 +8821,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="G118" t="s">
-        <v>1553</v>
+        <v>1540</v>
       </c>
       <c r="H118" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8886,13 +8847,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1387</v>
+        <v>1338</v>
       </c>
       <c r="G119" t="s">
-        <v>1554</v>
+        <v>1541</v>
       </c>
       <c r="H119" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8918,7 +8879,7 @@
         <v>968</v>
       </c>
       <c r="H120" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8944,7 +8905,7 @@
         <v>947</v>
       </c>
       <c r="H121" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8970,7 +8931,7 @@
         <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8996,7 +8957,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9016,13 +8977,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1388</v>
+        <v>1339</v>
       </c>
       <c r="G124" t="s">
-        <v>1555</v>
+        <v>1542</v>
       </c>
       <c r="H124" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9042,13 +9003,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G125" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
       <c r="H125" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9074,7 +9035,7 @@
         <v>1000</v>
       </c>
       <c r="H126" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9094,13 +9055,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G127" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="H127" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9120,13 +9081,13 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1345</v>
+        <v>1377</v>
       </c>
       <c r="G128" t="s">
-        <v>1557</v>
+        <v>1544</v>
       </c>
       <c r="H128" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9146,13 +9107,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1389</v>
+        <v>1346</v>
       </c>
       <c r="G129" t="s">
-        <v>1558</v>
+        <v>1545</v>
       </c>
       <c r="H129" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9172,13 +9133,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1387</v>
+        <v>1338</v>
       </c>
       <c r="G130" t="s">
-        <v>1559</v>
+        <v>1546</v>
       </c>
       <c r="H130" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9198,13 +9159,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="G131" t="s">
-        <v>1560</v>
+        <v>1547</v>
       </c>
       <c r="H131" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9224,13 +9185,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1338</v>
+        <v>1378</v>
       </c>
       <c r="G132" t="s">
-        <v>1561</v>
+        <v>1548</v>
       </c>
       <c r="H132" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9250,13 +9211,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1390</v>
+        <v>1346</v>
       </c>
       <c r="G133" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="H133" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9276,13 +9237,13 @@
         <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G134" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
       <c r="H134" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9308,7 +9269,7 @@
         <v>1065</v>
       </c>
       <c r="H135" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9331,10 +9292,10 @@
         <v>1339</v>
       </c>
       <c r="G136" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="H136" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9354,13 +9315,13 @@
         <v>1277</v>
       </c>
       <c r="F137" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G137" t="s">
-        <v>1564</v>
+        <v>1551</v>
       </c>
       <c r="H137" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9380,13 +9341,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1347</v>
+        <v>1364</v>
       </c>
       <c r="G138" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="H138" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9406,13 +9367,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="G139" t="s">
-        <v>1566</v>
+        <v>1553</v>
       </c>
       <c r="H139" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9432,13 +9393,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G140" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="H140" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9464,7 +9425,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9484,13 +9445,13 @@
         <v>1278</v>
       </c>
       <c r="F142" t="s">
-        <v>1392</v>
+        <v>1375</v>
       </c>
       <c r="G142" t="s">
-        <v>1568</v>
+        <v>1555</v>
       </c>
       <c r="H142" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9510,13 +9471,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1362</v>
+        <v>1344</v>
       </c>
       <c r="G143" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="H143" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9539,10 +9500,10 @@
         <v>1278</v>
       </c>
       <c r="G144" t="s">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="H144" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9568,7 +9529,7 @@
         <v>989</v>
       </c>
       <c r="H145" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9588,13 +9549,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1351</v>
+        <v>1372</v>
       </c>
       <c r="G146" t="s">
-        <v>1570</v>
+        <v>1557</v>
       </c>
       <c r="H146" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9620,7 +9581,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9640,13 +9601,13 @@
         <v>1278</v>
       </c>
       <c r="F148" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G148" t="s">
-        <v>1571</v>
+        <v>1558</v>
       </c>
       <c r="H148" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9666,7 +9627,7 @@
         <v>1277</v>
       </c>
       <c r="H149" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9686,13 +9647,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1351</v>
+        <v>1372</v>
       </c>
       <c r="G150" t="s">
-        <v>1572</v>
+        <v>1559</v>
       </c>
       <c r="H150" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9718,7 +9679,7 @@
         <v>996</v>
       </c>
       <c r="H151" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9741,10 +9702,10 @@
         <v>1278</v>
       </c>
       <c r="G152" t="s">
-        <v>1573</v>
+        <v>1560</v>
       </c>
       <c r="H152" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9764,13 +9725,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1393</v>
+        <v>1380</v>
       </c>
       <c r="G153" t="s">
-        <v>1574</v>
+        <v>1561</v>
       </c>
       <c r="H153" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9790,13 +9751,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1394</v>
+        <v>1368</v>
       </c>
       <c r="G154" t="s">
-        <v>1575</v>
+        <v>1562</v>
       </c>
       <c r="H154" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9816,13 +9777,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G155" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="H155" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9842,13 +9803,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G156" t="s">
-        <v>1577</v>
+        <v>1564</v>
       </c>
       <c r="H156" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9868,13 +9829,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1294</v>
+        <v>1278</v>
       </c>
       <c r="G157" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="H157" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9894,13 +9855,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G158" t="s">
-        <v>1532</v>
+        <v>1519</v>
       </c>
       <c r="H158" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9920,13 +9881,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1342</v>
+        <v>1367</v>
       </c>
       <c r="G159" t="s">
-        <v>1578</v>
+        <v>1565</v>
       </c>
       <c r="H159" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9946,13 +9907,13 @@
         <v>1285</v>
       </c>
       <c r="F160" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="G160" t="s">
-        <v>1579</v>
+        <v>1566</v>
       </c>
       <c r="H160" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9978,7 +9939,7 @@
         <v>1062</v>
       </c>
       <c r="H161" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9998,13 +9959,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1342</v>
+        <v>1367</v>
       </c>
       <c r="G162" t="s">
-        <v>1580</v>
+        <v>1567</v>
       </c>
       <c r="H162" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10030,7 +9991,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10050,13 +10011,13 @@
         <v>1279</v>
       </c>
       <c r="F164" t="s">
-        <v>1378</v>
+        <v>1338</v>
       </c>
       <c r="G164" t="s">
-        <v>1581</v>
+        <v>1568</v>
       </c>
       <c r="H164" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10076,13 +10037,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="G165" t="s">
-        <v>1582</v>
+        <v>1569</v>
       </c>
       <c r="H165" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10102,13 +10063,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G166" t="s">
-        <v>1583</v>
+        <v>1570</v>
       </c>
       <c r="H166" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10128,13 +10089,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="G167" t="s">
-        <v>1584</v>
+        <v>1571</v>
       </c>
       <c r="H167" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10154,13 +10115,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1396</v>
+        <v>1383</v>
       </c>
       <c r="G168" t="s">
-        <v>1585</v>
+        <v>1572</v>
       </c>
       <c r="H168" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10180,13 +10141,13 @@
         <v>1300</v>
       </c>
       <c r="F169" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="G169" t="s">
-        <v>1586</v>
+        <v>1573</v>
       </c>
       <c r="H169" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10206,13 +10167,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1398</v>
+        <v>1385</v>
       </c>
       <c r="G170" t="s">
-        <v>1587</v>
+        <v>1574</v>
       </c>
       <c r="H170" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10232,13 +10193,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="G171" t="s">
-        <v>1588</v>
+        <v>1575</v>
       </c>
       <c r="H171" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10258,13 +10219,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G172" t="s">
-        <v>1589</v>
+        <v>1576</v>
       </c>
       <c r="H172" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10284,13 +10245,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G173" t="s">
-        <v>1590</v>
+        <v>1577</v>
       </c>
       <c r="H173" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10313,10 +10274,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1573</v>
+        <v>1560</v>
       </c>
       <c r="H174" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10336,13 +10297,13 @@
         <v>1307</v>
       </c>
       <c r="F175" t="s">
-        <v>1399</v>
+        <v>1386</v>
       </c>
       <c r="G175" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="H175" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10365,10 +10326,10 @@
         <v>1285</v>
       </c>
       <c r="G176" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="H176" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10388,13 +10349,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="G177" t="s">
-        <v>1592</v>
+        <v>1579</v>
       </c>
       <c r="H177" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10414,13 +10375,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1400</v>
+        <v>1387</v>
       </c>
       <c r="G178" t="s">
-        <v>1593</v>
+        <v>1580</v>
       </c>
       <c r="H178" t="s">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10440,13 +10401,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="G179" t="s">
-        <v>1594</v>
+        <v>1581</v>
       </c>
       <c r="H179" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10466,13 +10427,13 @@
         <v>1293</v>
       </c>
       <c r="F180" t="s">
-        <v>1402</v>
+        <v>1389</v>
       </c>
       <c r="G180" t="s">
-        <v>1595</v>
+        <v>1582</v>
       </c>
       <c r="H180" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10492,13 +10453,13 @@
         <v>1277</v>
       </c>
       <c r="F181" t="s">
-        <v>1347</v>
+        <v>1370</v>
       </c>
       <c r="G181" t="s">
-        <v>1596</v>
+        <v>1583</v>
       </c>
       <c r="H181" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10524,7 +10485,7 @@
         <v>989</v>
       </c>
       <c r="H182" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10544,13 +10505,13 @@
         <v>1278</v>
       </c>
       <c r="F183" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G183" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="H183" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10573,10 +10534,10 @@
         <v>1339</v>
       </c>
       <c r="G184" t="s">
-        <v>1597</v>
+        <v>1584</v>
       </c>
       <c r="H184" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10596,13 +10557,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1345</v>
+        <v>1377</v>
       </c>
       <c r="G185" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
       <c r="H185" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10622,13 +10583,13 @@
         <v>1285</v>
       </c>
       <c r="F186" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G186" t="s">
-        <v>1598</v>
+        <v>1585</v>
       </c>
       <c r="H186" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10648,13 +10609,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G187" t="s">
-        <v>1544</v>
+        <v>1531</v>
       </c>
       <c r="H187" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10680,7 +10641,7 @@
         <v>989</v>
       </c>
       <c r="H188" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10700,13 +10661,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1345</v>
+        <v>1377</v>
       </c>
       <c r="G189" t="s">
-        <v>1599</v>
+        <v>1586</v>
       </c>
       <c r="H189" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10732,7 +10693,7 @@
         <v>933</v>
       </c>
       <c r="H190" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10752,13 +10713,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="G191" t="s">
-        <v>1600</v>
+        <v>1587</v>
       </c>
       <c r="H191" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10778,13 +10739,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1372</v>
+        <v>1390</v>
       </c>
       <c r="G192" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="H192" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10804,13 +10765,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="G193" t="s">
-        <v>1602</v>
+        <v>1589</v>
       </c>
       <c r="H193" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10833,10 +10794,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1603</v>
+        <v>1590</v>
       </c>
       <c r="H194" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10862,7 +10823,7 @@
         <v>968</v>
       </c>
       <c r="H195" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10882,13 +10843,13 @@
         <v>1285</v>
       </c>
       <c r="F196" t="s">
-        <v>1342</v>
+        <v>1370</v>
       </c>
       <c r="G196" t="s">
-        <v>1604</v>
+        <v>1591</v>
       </c>
       <c r="H196" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10914,7 +10875,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10937,10 +10898,10 @@
         <v>1285</v>
       </c>
       <c r="G198" t="s">
-        <v>1539</v>
+        <v>1526</v>
       </c>
       <c r="H198" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10960,13 +10921,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G199" t="s">
-        <v>1605</v>
+        <v>1592</v>
       </c>
       <c r="H199" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10986,13 +10947,13 @@
         <v>1278</v>
       </c>
       <c r="F200" t="s">
-        <v>1358</v>
+        <v>1378</v>
       </c>
       <c r="G200" t="s">
-        <v>1606</v>
+        <v>1593</v>
       </c>
       <c r="H200" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11012,13 +10973,13 @@
         <v>1285</v>
       </c>
       <c r="F201" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G201" t="s">
-        <v>1607</v>
+        <v>1594</v>
       </c>
       <c r="H201" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11038,13 +10999,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="G202" t="s">
-        <v>1608</v>
+        <v>1595</v>
       </c>
       <c r="H202" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11064,13 +11025,13 @@
         <v>1285</v>
       </c>
       <c r="F203" t="s">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="G203" t="s">
-        <v>1609</v>
+        <v>1596</v>
       </c>
       <c r="H203" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11090,13 +11051,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1405</v>
+        <v>1371</v>
       </c>
       <c r="G204" t="s">
-        <v>1610</v>
+        <v>1597</v>
       </c>
       <c r="H204" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11116,13 +11077,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="G205" t="s">
-        <v>1611</v>
+        <v>1598</v>
       </c>
       <c r="H205" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11142,13 +11103,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1406</v>
+        <v>1393</v>
       </c>
       <c r="G206" t="s">
-        <v>1612</v>
+        <v>1599</v>
       </c>
       <c r="H206" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11174,7 +11135,7 @@
         <v>947</v>
       </c>
       <c r="H207" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11197,10 +11158,10 @@
         <v>1339</v>
       </c>
       <c r="G208" t="s">
-        <v>1613</v>
+        <v>1600</v>
       </c>
       <c r="H208" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11226,7 +11187,7 @@
         <v>1046</v>
       </c>
       <c r="H209" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11249,10 +11210,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1614</v>
+        <v>1601</v>
       </c>
       <c r="H210" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11272,13 +11233,13 @@
         <v>1311</v>
       </c>
       <c r="F211" t="s">
-        <v>1407</v>
+        <v>1394</v>
       </c>
       <c r="G211" t="s">
-        <v>1615</v>
+        <v>1602</v>
       </c>
       <c r="H211" t="s">
-        <v>1796</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11298,13 +11259,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1362</v>
+        <v>1344</v>
       </c>
       <c r="G212" t="s">
-        <v>1616</v>
+        <v>1603</v>
       </c>
       <c r="H212" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11327,10 +11288,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="H213" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11350,13 +11311,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1408</v>
+        <v>1395</v>
       </c>
       <c r="G214" t="s">
-        <v>1617</v>
+        <v>1604</v>
       </c>
       <c r="H214" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11376,13 +11337,13 @@
         <v>1278</v>
       </c>
       <c r="F215" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G215" t="s">
-        <v>1618</v>
+        <v>1605</v>
       </c>
       <c r="H215" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11408,7 +11369,7 @@
         <v>989</v>
       </c>
       <c r="H216" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11428,13 +11389,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1345</v>
+        <v>1377</v>
       </c>
       <c r="G217" t="s">
-        <v>1619</v>
+        <v>1606</v>
       </c>
       <c r="H217" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11454,13 +11415,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="G218" t="s">
-        <v>1620</v>
+        <v>1607</v>
       </c>
       <c r="H218" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11483,10 +11444,10 @@
         <v>1278</v>
       </c>
       <c r="G219" t="s">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="H219" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11506,13 +11467,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1409</v>
+        <v>1396</v>
       </c>
       <c r="G220" t="s">
-        <v>1621</v>
+        <v>1608</v>
       </c>
       <c r="H220" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11538,7 +11499,7 @@
         <v>947</v>
       </c>
       <c r="H221" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11558,13 +11519,13 @@
         <v>1276</v>
       </c>
       <c r="F222" t="s">
-        <v>1410</v>
+        <v>1345</v>
       </c>
       <c r="G222" t="s">
-        <v>1622</v>
+        <v>1609</v>
       </c>
       <c r="H222" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11584,13 +11545,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
       <c r="G223" t="s">
-        <v>1623</v>
+        <v>1610</v>
       </c>
       <c r="H223" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11610,13 +11571,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="G224" t="s">
-        <v>1624</v>
+        <v>1611</v>
       </c>
       <c r="H224" t="s">
-        <v>1798</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11642,7 +11603,7 @@
         <v>1089</v>
       </c>
       <c r="H225" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11668,7 +11629,7 @@
         <v>931</v>
       </c>
       <c r="H226" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11694,7 +11655,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11714,13 +11675,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G228" t="s">
-        <v>1625</v>
+        <v>1612</v>
       </c>
       <c r="H228" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11740,13 +11701,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1413</v>
+        <v>1399</v>
       </c>
       <c r="G229" t="s">
-        <v>1626</v>
+        <v>1613</v>
       </c>
       <c r="H229" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11769,10 +11730,10 @@
         <v>1294</v>
       </c>
       <c r="G230" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
       <c r="H230" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11798,7 +11759,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11821,10 +11782,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1628</v>
+        <v>1615</v>
       </c>
       <c r="H232" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11847,10 +11808,10 @@
         <v>1294</v>
       </c>
       <c r="G233" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
       <c r="H233" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11870,13 +11831,13 @@
         <v>1285</v>
       </c>
       <c r="F234" t="s">
-        <v>1339</v>
+        <v>1366</v>
       </c>
       <c r="G234" t="s">
-        <v>1629</v>
+        <v>1616</v>
       </c>
       <c r="H234" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11896,13 +11857,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1341</v>
+        <v>1400</v>
       </c>
       <c r="G235" t="s">
-        <v>1630</v>
+        <v>1617</v>
       </c>
       <c r="H235" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11922,13 +11883,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1414</v>
+        <v>1401</v>
       </c>
       <c r="G236" t="s">
-        <v>1631</v>
+        <v>1618</v>
       </c>
       <c r="H236" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11948,13 +11909,13 @@
         <v>1285</v>
       </c>
       <c r="F237" t="s">
-        <v>1397</v>
+        <v>1384</v>
       </c>
       <c r="G237" t="s">
-        <v>1632</v>
+        <v>1619</v>
       </c>
       <c r="H237" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11974,13 +11935,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1415</v>
+        <v>1402</v>
       </c>
       <c r="G238" t="s">
-        <v>1633</v>
+        <v>1620</v>
       </c>
       <c r="H238" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12000,13 +11961,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G239" t="s">
-        <v>1543</v>
+        <v>1530</v>
       </c>
       <c r="H239" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12026,13 +11987,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="G240" t="s">
-        <v>1634</v>
+        <v>1621</v>
       </c>
       <c r="H240" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12055,10 +12016,10 @@
         <v>1285</v>
       </c>
       <c r="G241" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="H241" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12078,13 +12039,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1362</v>
+        <v>1344</v>
       </c>
       <c r="G242" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="H242" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12104,13 +12065,13 @@
         <v>1276</v>
       </c>
       <c r="F243" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="G243" t="s">
-        <v>1635</v>
+        <v>1622</v>
       </c>
       <c r="H243" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12130,13 +12091,13 @@
         <v>1276</v>
       </c>
       <c r="F244" t="s">
-        <v>1397</v>
+        <v>1345</v>
       </c>
       <c r="G244" t="s">
-        <v>1636</v>
+        <v>1623</v>
       </c>
       <c r="H244" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12156,13 +12117,13 @@
         <v>1276</v>
       </c>
       <c r="F245" t="s">
-        <v>1372</v>
+        <v>1403</v>
       </c>
       <c r="G245" t="s">
-        <v>1637</v>
+        <v>1624</v>
       </c>
       <c r="H245" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12188,7 +12149,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12208,13 +12169,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1410</v>
+        <v>1344</v>
       </c>
       <c r="G247" t="s">
-        <v>1638</v>
+        <v>1625</v>
       </c>
       <c r="H247" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12240,7 +12201,7 @@
         <v>985</v>
       </c>
       <c r="H248" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12260,13 +12221,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="G249" t="s">
-        <v>1639</v>
+        <v>1626</v>
       </c>
       <c r="H249" t="s">
-        <v>1780</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12289,10 +12250,10 @@
         <v>1339</v>
       </c>
       <c r="G250" t="s">
-        <v>1640</v>
+        <v>1627</v>
       </c>
       <c r="H250" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12312,13 +12273,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1341</v>
+        <v>1405</v>
       </c>
       <c r="G251" t="s">
-        <v>1641</v>
+        <v>1628</v>
       </c>
       <c r="H251" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12338,13 +12299,13 @@
         <v>1276</v>
       </c>
       <c r="F252" t="s">
-        <v>1417</v>
+        <v>1406</v>
       </c>
       <c r="G252" t="s">
-        <v>1642</v>
+        <v>1629</v>
       </c>
       <c r="H252" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12364,13 +12325,13 @@
         <v>1276</v>
       </c>
       <c r="F253" t="s">
-        <v>1410</v>
+        <v>1377</v>
       </c>
       <c r="G253" t="s">
-        <v>1643</v>
+        <v>1630</v>
       </c>
       <c r="H253" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12396,7 +12357,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12416,13 +12377,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1362</v>
+        <v>1339</v>
       </c>
       <c r="G255" t="s">
-        <v>1644</v>
+        <v>1631</v>
       </c>
       <c r="H255" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12445,10 +12406,10 @@
         <v>1294</v>
       </c>
       <c r="G256" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
       <c r="H256" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12468,13 +12429,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G257" t="s">
-        <v>1481</v>
+        <v>1468</v>
       </c>
       <c r="H257" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12494,13 +12455,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="G258" t="s">
-        <v>1645</v>
+        <v>1632</v>
       </c>
       <c r="H258" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12526,7 +12487,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12549,10 +12510,10 @@
         <v>1294</v>
       </c>
       <c r="G260" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
       <c r="H260" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12572,13 +12533,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="G261" t="s">
-        <v>1646</v>
+        <v>1633</v>
       </c>
       <c r="H261" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12604,7 +12565,7 @@
         <v>968</v>
       </c>
       <c r="H262" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12624,13 +12585,13 @@
         <v>1300</v>
       </c>
       <c r="F263" t="s">
-        <v>1418</v>
+        <v>1407</v>
       </c>
       <c r="G263" t="s">
-        <v>1647</v>
+        <v>1634</v>
       </c>
       <c r="H263" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12650,13 +12611,13 @@
         <v>1276</v>
       </c>
       <c r="F264" t="s">
-        <v>1386</v>
+        <v>1408</v>
       </c>
       <c r="G264" t="s">
-        <v>1648</v>
+        <v>1635</v>
       </c>
       <c r="H264" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12676,13 +12637,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1341</v>
+        <v>1400</v>
       </c>
       <c r="G265" t="s">
-        <v>1649</v>
+        <v>1636</v>
       </c>
       <c r="H265" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12702,13 +12663,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1419</v>
+        <v>1363</v>
       </c>
       <c r="G266" t="s">
-        <v>1650</v>
+        <v>1637</v>
       </c>
       <c r="H266" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12728,13 +12689,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1381</v>
+        <v>1409</v>
       </c>
       <c r="G267" t="s">
-        <v>1651</v>
+        <v>1638</v>
       </c>
       <c r="H267" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12754,13 +12715,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G268" t="s">
-        <v>1652</v>
+        <v>1639</v>
       </c>
       <c r="H268" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12780,13 +12741,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="G269" t="s">
-        <v>1653</v>
+        <v>1640</v>
       </c>
       <c r="H269" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12812,7 +12773,7 @@
         <v>985</v>
       </c>
       <c r="H270" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12832,13 +12793,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1421</v>
+        <v>1407</v>
       </c>
       <c r="G271" t="s">
-        <v>1654</v>
+        <v>1641</v>
       </c>
       <c r="H271" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12858,13 +12819,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1395</v>
+        <v>1382</v>
       </c>
       <c r="G272" t="s">
-        <v>1655</v>
+        <v>1642</v>
       </c>
       <c r="H272" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12884,13 +12845,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1422</v>
+        <v>1382</v>
       </c>
       <c r="G273" t="s">
-        <v>1656</v>
+        <v>1643</v>
       </c>
       <c r="H273" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12910,13 +12871,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1423</v>
+        <v>1390</v>
       </c>
       <c r="G274" t="s">
-        <v>1657</v>
+        <v>1644</v>
       </c>
       <c r="H274" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12936,13 +12897,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="G275" t="s">
-        <v>1658</v>
+        <v>1645</v>
       </c>
       <c r="H275" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12962,13 +12923,13 @@
         <v>1276</v>
       </c>
       <c r="F276" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="G276" t="s">
-        <v>1659</v>
+        <v>1646</v>
       </c>
       <c r="H276" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12991,10 +12952,10 @@
         <v>1285</v>
       </c>
       <c r="G277" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="H277" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13014,13 +12975,13 @@
         <v>1276</v>
       </c>
       <c r="F278" t="s">
-        <v>1410</v>
+        <v>1345</v>
       </c>
       <c r="G278" t="s">
-        <v>1660</v>
+        <v>1647</v>
       </c>
       <c r="H278" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13040,13 +13001,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="G279" t="s">
-        <v>1661</v>
+        <v>1648</v>
       </c>
       <c r="H279" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13072,7 +13033,7 @@
         <v>1227</v>
       </c>
       <c r="H280" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13092,13 +13053,13 @@
         <v>1276</v>
       </c>
       <c r="F281" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G281" t="s">
         <v>985</v>
       </c>
       <c r="H281" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13118,13 +13079,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="G282" t="s">
-        <v>1662</v>
+        <v>1649</v>
       </c>
       <c r="H282" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13144,13 +13105,13 @@
         <v>1285</v>
       </c>
       <c r="F283" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G283" t="s">
         <v>1211</v>
       </c>
       <c r="H283" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13170,13 +13131,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G284" t="s">
-        <v>1663</v>
+        <v>1650</v>
       </c>
       <c r="H284" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13196,13 +13157,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1373</v>
+        <v>1414</v>
       </c>
       <c r="G285" t="s">
-        <v>1664</v>
+        <v>1651</v>
       </c>
       <c r="H285" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13222,13 +13183,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="G286" t="s">
-        <v>1665</v>
+        <v>1652</v>
       </c>
       <c r="H286" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13248,13 +13209,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1419</v>
+        <v>1350</v>
       </c>
       <c r="G287" t="s">
-        <v>1666</v>
+        <v>1653</v>
       </c>
       <c r="H287" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13274,13 +13235,13 @@
         <v>1276</v>
       </c>
       <c r="F288" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G288" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="H288" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13300,13 +13261,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G289" t="s">
-        <v>1589</v>
+        <v>1576</v>
       </c>
       <c r="H289" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13326,13 +13287,13 @@
         <v>1321</v>
       </c>
       <c r="F290" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="G290" t="s">
-        <v>1667</v>
+        <v>1654</v>
       </c>
       <c r="H290" t="s">
-        <v>1785</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13352,13 +13313,13 @@
         <v>1276</v>
       </c>
       <c r="F291" t="s">
-        <v>1386</v>
+        <v>1408</v>
       </c>
       <c r="G291" t="s">
-        <v>1668</v>
+        <v>1655</v>
       </c>
       <c r="H291" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13378,13 +13339,13 @@
         <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="G292" t="s">
-        <v>1669</v>
+        <v>1656</v>
       </c>
       <c r="H292" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13404,13 +13365,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1423</v>
+        <v>1381</v>
       </c>
       <c r="G293" t="s">
-        <v>1670</v>
+        <v>1657</v>
       </c>
       <c r="H293" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13430,13 +13391,13 @@
         <v>1285</v>
       </c>
       <c r="F294" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G294" t="s">
-        <v>1598</v>
+        <v>1585</v>
       </c>
       <c r="H294" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13462,7 +13423,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13482,13 +13443,13 @@
         <v>1276</v>
       </c>
       <c r="F296" t="s">
-        <v>1345</v>
+        <v>1377</v>
       </c>
       <c r="G296" t="s">
-        <v>1557</v>
+        <v>1544</v>
       </c>
       <c r="H296" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13511,10 +13472,10 @@
         <v>1285</v>
       </c>
       <c r="G297" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="H297" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13534,13 +13495,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1395</v>
+        <v>1366</v>
       </c>
       <c r="G298" t="s">
-        <v>1671</v>
+        <v>1658</v>
       </c>
       <c r="H298" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13563,10 +13524,10 @@
         <v>1345</v>
       </c>
       <c r="G299" t="s">
-        <v>1672</v>
+        <v>1659</v>
       </c>
       <c r="H299" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13586,13 +13547,13 @@
         <v>1276</v>
       </c>
       <c r="F300" t="s">
-        <v>1397</v>
+        <v>1364</v>
       </c>
       <c r="G300" t="s">
-        <v>1673</v>
+        <v>1660</v>
       </c>
       <c r="H300" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13612,13 +13573,13 @@
         <v>1285</v>
       </c>
       <c r="F301" t="s">
-        <v>1391</v>
+        <v>1418</v>
       </c>
       <c r="G301" t="s">
-        <v>1674</v>
+        <v>1661</v>
       </c>
       <c r="H301" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13638,13 +13599,13 @@
         <v>1279</v>
       </c>
       <c r="F302" t="s">
-        <v>1422</v>
+        <v>1382</v>
       </c>
       <c r="G302" t="s">
-        <v>1675</v>
+        <v>1662</v>
       </c>
       <c r="H302" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13664,13 +13625,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G303" t="s">
         <v>985</v>
       </c>
       <c r="H303" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13696,7 +13657,7 @@
         <v>1000</v>
       </c>
       <c r="H304" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13722,7 +13683,7 @@
         <v>933</v>
       </c>
       <c r="H305" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13742,13 +13703,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1410</v>
+        <v>1345</v>
       </c>
       <c r="G306" t="s">
-        <v>1676</v>
+        <v>1663</v>
       </c>
       <c r="H306" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13774,7 +13735,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13794,13 +13755,13 @@
         <v>1279</v>
       </c>
       <c r="F308" t="s">
-        <v>1388</v>
+        <v>1419</v>
       </c>
       <c r="G308" t="s">
-        <v>1677</v>
+        <v>1664</v>
       </c>
       <c r="H308" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13826,7 +13787,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13852,7 +13813,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13878,7 +13839,7 @@
         <v>968</v>
       </c>
       <c r="H311" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13898,13 +13859,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G312" t="s">
-        <v>1678</v>
+        <v>1665</v>
       </c>
       <c r="H312" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13930,7 +13891,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13956,7 +13917,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13976,13 +13937,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="G315" t="s">
-        <v>1679</v>
+        <v>1666</v>
       </c>
       <c r="H315" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14002,13 +13963,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="G316" t="s">
-        <v>1680</v>
+        <v>1667</v>
       </c>
       <c r="H316" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14028,13 +13989,13 @@
         <v>1276</v>
       </c>
       <c r="F317" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G317" t="s">
-        <v>1557</v>
+        <v>1544</v>
       </c>
       <c r="H317" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14054,13 +14015,13 @@
         <v>1279</v>
       </c>
       <c r="F318" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G318" t="s">
-        <v>1481</v>
+        <v>1468</v>
       </c>
       <c r="H318" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14086,7 +14047,7 @@
         <v>1171</v>
       </c>
       <c r="H319" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14106,13 +14067,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1342</v>
+        <v>1384</v>
       </c>
       <c r="G320" t="s">
-        <v>1681</v>
+        <v>1668</v>
       </c>
       <c r="H320" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14132,13 +14093,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="G321" t="s">
-        <v>1682</v>
+        <v>1669</v>
       </c>
       <c r="H321" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14158,13 +14119,13 @@
         <v>1285</v>
       </c>
       <c r="F322" t="s">
-        <v>1431</v>
+        <v>1349</v>
       </c>
       <c r="G322" t="s">
-        <v>1683</v>
+        <v>1670</v>
       </c>
       <c r="H322" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14184,13 +14145,13 @@
         <v>1310</v>
       </c>
       <c r="F323" t="s">
-        <v>1397</v>
+        <v>1345</v>
       </c>
       <c r="G323" t="s">
-        <v>1684</v>
+        <v>1671</v>
       </c>
       <c r="H323" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14210,13 +14171,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1422</v>
+        <v>1382</v>
       </c>
       <c r="G324" t="s">
-        <v>1685</v>
+        <v>1672</v>
       </c>
       <c r="H324" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14242,7 +14203,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14268,7 +14229,7 @@
         <v>1089</v>
       </c>
       <c r="H326" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14288,13 +14249,13 @@
         <v>1276</v>
       </c>
       <c r="F327" t="s">
-        <v>1432</v>
+        <v>1393</v>
       </c>
       <c r="G327" t="s">
-        <v>1686</v>
+        <v>1673</v>
       </c>
       <c r="H327" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14314,13 +14275,13 @@
         <v>1285</v>
       </c>
       <c r="F328" t="s">
-        <v>1342</v>
+        <v>1422</v>
       </c>
       <c r="G328" t="s">
-        <v>1687</v>
+        <v>1674</v>
       </c>
       <c r="H328" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14340,13 +14301,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1375</v>
+        <v>1350</v>
       </c>
       <c r="G329" t="s">
-        <v>1688</v>
+        <v>1675</v>
       </c>
       <c r="H329" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14366,13 +14327,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G330" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="H330" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14392,13 +14353,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1433</v>
+        <v>1423</v>
       </c>
       <c r="G331" t="s">
-        <v>1689</v>
+        <v>1676</v>
       </c>
       <c r="H331" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14418,13 +14379,13 @@
         <v>1285</v>
       </c>
       <c r="F332" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G332" t="s">
-        <v>1532</v>
+        <v>1519</v>
       </c>
       <c r="H332" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14444,13 +14405,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="G333" t="s">
-        <v>1690</v>
+        <v>1677</v>
       </c>
       <c r="H333" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14470,13 +14431,13 @@
         <v>1285</v>
       </c>
       <c r="F334" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
       <c r="G334" t="s">
-        <v>1691</v>
+        <v>1678</v>
       </c>
       <c r="H334" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14496,13 +14457,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="G335" t="s">
-        <v>1692</v>
+        <v>1679</v>
       </c>
       <c r="H335" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14522,13 +14483,13 @@
         <v>1311</v>
       </c>
       <c r="F336" t="s">
-        <v>1418</v>
+        <v>1425</v>
       </c>
       <c r="G336" t="s">
-        <v>1693</v>
+        <v>1680</v>
       </c>
       <c r="H336" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14548,13 +14509,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1372</v>
+        <v>1390</v>
       </c>
       <c r="G337" t="s">
-        <v>1694</v>
+        <v>1681</v>
       </c>
       <c r="H337" t="s">
-        <v>1784</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14574,13 +14535,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1375</v>
+        <v>1426</v>
       </c>
       <c r="G338" t="s">
-        <v>1695</v>
+        <v>1682</v>
       </c>
       <c r="H338" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14600,13 +14561,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="G339" t="s">
-        <v>1696</v>
+        <v>1683</v>
       </c>
       <c r="H339" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14626,13 +14587,13 @@
         <v>1276</v>
       </c>
       <c r="F340" t="s">
-        <v>1294</v>
+        <v>1276</v>
       </c>
       <c r="G340" t="s">
-        <v>1697</v>
+        <v>1684</v>
       </c>
       <c r="H340" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14652,13 +14613,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1375</v>
+        <v>1426</v>
       </c>
       <c r="G341" t="s">
-        <v>1698</v>
+        <v>1685</v>
       </c>
       <c r="H341" t="s">
-        <v>1800</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14678,13 +14639,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1345</v>
+        <v>1377</v>
       </c>
       <c r="G342" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
       <c r="H342" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14704,13 +14665,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="G343" t="s">
-        <v>1699</v>
+        <v>1686</v>
       </c>
       <c r="H343" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14730,13 +14691,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="G344" t="s">
-        <v>1700</v>
+        <v>1687</v>
       </c>
       <c r="H344" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14756,13 +14717,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1342</v>
+        <v>1367</v>
       </c>
       <c r="G345" t="s">
-        <v>1607</v>
+        <v>1594</v>
       </c>
       <c r="H345" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14782,13 +14743,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="G346" t="s">
-        <v>1701</v>
+        <v>1688</v>
       </c>
       <c r="H346" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14808,13 +14769,13 @@
         <v>1276</v>
       </c>
       <c r="F347" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="G347" t="s">
-        <v>1702</v>
+        <v>1689</v>
       </c>
       <c r="H347" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14840,7 +14801,7 @@
         <v>985</v>
       </c>
       <c r="H348" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14866,7 +14827,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14889,10 +14850,10 @@
         <v>1345</v>
       </c>
       <c r="G350" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
       <c r="H350" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14912,13 +14873,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="G351" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
       <c r="H351" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14938,13 +14899,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="G352" t="s">
-        <v>1704</v>
+        <v>1691</v>
       </c>
       <c r="H352" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14970,7 +14931,7 @@
         <v>968</v>
       </c>
       <c r="H353" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14996,7 +14957,7 @@
         <v>985</v>
       </c>
       <c r="H354" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15019,10 +14980,10 @@
         <v>1278</v>
       </c>
       <c r="G355" t="s">
-        <v>1691</v>
+        <v>1678</v>
       </c>
       <c r="H355" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15048,7 +15009,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15068,13 +15029,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="G357" t="s">
-        <v>1705</v>
+        <v>1692</v>
       </c>
       <c r="H357" t="s">
-        <v>1801</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15097,10 +15058,10 @@
         <v>1345</v>
       </c>
       <c r="G358" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
       <c r="H358" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15123,10 +15084,10 @@
         <v>1285</v>
       </c>
       <c r="G359" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
       <c r="H359" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15152,7 +15113,7 @@
         <v>985</v>
       </c>
       <c r="H360" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15172,13 +15133,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="G361" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="H361" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15198,13 +15159,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G362" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="H362" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15224,13 +15185,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="G363" t="s">
-        <v>1706</v>
+        <v>1693</v>
       </c>
       <c r="H363" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15250,13 +15211,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1434</v>
+        <v>1360</v>
       </c>
       <c r="G364" t="s">
-        <v>1707</v>
+        <v>1694</v>
       </c>
       <c r="H364" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15276,13 +15237,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G365" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
       <c r="H365" t="s">
-        <v>1802</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15302,13 +15263,13 @@
         <v>1294</v>
       </c>
       <c r="F366" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G366" t="s">
-        <v>1678</v>
+        <v>1665</v>
       </c>
       <c r="H366" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15331,10 +15292,10 @@
         <v>1339</v>
       </c>
       <c r="G367" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="H367" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15354,13 +15315,13 @@
         <v>1298</v>
       </c>
       <c r="F368" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G368" t="s">
-        <v>1709</v>
+        <v>1696</v>
       </c>
       <c r="H368" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15380,13 +15341,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1339</v>
+        <v>1367</v>
       </c>
       <c r="G369" t="s">
-        <v>1468</v>
+        <v>1455</v>
       </c>
       <c r="H369" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15406,7 +15367,7 @@
         <v>1285</v>
       </c>
       <c r="H370" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15426,13 +15387,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1422</v>
+        <v>1339</v>
       </c>
       <c r="G371" t="s">
-        <v>1710</v>
+        <v>1697</v>
       </c>
       <c r="H371" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15452,13 +15413,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1391</v>
+        <v>1355</v>
       </c>
       <c r="G372" t="s">
-        <v>1711</v>
+        <v>1698</v>
       </c>
       <c r="H372" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15478,13 +15439,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1401</v>
+        <v>1358</v>
       </c>
       <c r="G373" t="s">
-        <v>1712</v>
+        <v>1699</v>
       </c>
       <c r="H373" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15504,7 +15465,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15530,7 +15491,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15550,13 +15511,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="G376" t="s">
-        <v>1713</v>
+        <v>1700</v>
       </c>
       <c r="H376" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15576,13 +15537,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1443</v>
+        <v>1350</v>
       </c>
       <c r="G377" t="s">
-        <v>1714</v>
+        <v>1701</v>
       </c>
       <c r="H377" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15602,13 +15563,13 @@
         <v>1285</v>
       </c>
       <c r="F378" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="G378" t="s">
-        <v>1715</v>
+        <v>1702</v>
       </c>
       <c r="H378" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15628,13 +15589,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="G379" t="s">
-        <v>1716</v>
+        <v>1703</v>
       </c>
       <c r="H379" t="s">
-        <v>1786</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15654,13 +15615,13 @@
         <v>1285</v>
       </c>
       <c r="F380" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G380" t="s">
-        <v>1717</v>
+        <v>1704</v>
       </c>
       <c r="H380" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15683,10 +15644,10 @@
         <v>1294</v>
       </c>
       <c r="G381" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
       <c r="H381" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15706,13 +15667,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="G382" t="s">
-        <v>1718</v>
+        <v>1705</v>
       </c>
       <c r="H382" t="s">
-        <v>1803</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15732,13 +15693,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="G383" t="s">
-        <v>1719</v>
+        <v>1706</v>
       </c>
       <c r="H383" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15758,13 +15719,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="G384" t="s">
-        <v>1720</v>
+        <v>1707</v>
       </c>
       <c r="H384" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15784,13 +15745,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1422</v>
+        <v>1382</v>
       </c>
       <c r="G385" t="s">
-        <v>1685</v>
+        <v>1672</v>
       </c>
       <c r="H385" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15810,13 +15771,13 @@
         <v>1325</v>
       </c>
       <c r="F386" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="G386" t="s">
-        <v>1721</v>
+        <v>1708</v>
       </c>
       <c r="H386" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15836,13 +15797,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1422</v>
+        <v>1382</v>
       </c>
       <c r="G387" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="H387" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15862,13 +15823,13 @@
         <v>1283</v>
       </c>
       <c r="F388" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G388" t="s">
-        <v>1598</v>
+        <v>1585</v>
       </c>
       <c r="H388" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15888,13 +15849,13 @@
         <v>1285</v>
       </c>
       <c r="F389" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G389" t="s">
-        <v>1578</v>
+        <v>1565</v>
       </c>
       <c r="H389" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15914,13 +15875,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1380</v>
+        <v>1350</v>
       </c>
       <c r="G390" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="H390" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15940,13 +15901,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1347</v>
+        <v>1339</v>
       </c>
       <c r="G391" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="H391" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15966,13 +15927,13 @@
         <v>1285</v>
       </c>
       <c r="F392" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G392" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
       <c r="H392" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15992,13 +15953,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="G393" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="H393" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16018,13 +15979,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1395</v>
+        <v>1441</v>
       </c>
       <c r="G394" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="H394" t="s">
-        <v>1788</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16044,13 +16005,13 @@
         <v>1285</v>
       </c>
       <c r="F395" t="s">
-        <v>1338</v>
+        <v>1378</v>
       </c>
       <c r="G395" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
       <c r="H395" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16070,13 +16031,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="G396" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="H396" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16096,13 +16057,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="G397" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="H397" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16128,7 +16089,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16148,13 +16109,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1338</v>
+        <v>1378</v>
       </c>
       <c r="G399" t="s">
-        <v>1731</v>
+        <v>1718</v>
       </c>
       <c r="H399" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16174,13 +16135,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1451</v>
+        <v>1395</v>
       </c>
       <c r="G400" t="s">
-        <v>1732</v>
+        <v>1719</v>
       </c>
       <c r="H400" t="s">
-        <v>1804</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16206,7 +16167,7 @@
         <v>1227</v>
       </c>
       <c r="H401" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16226,13 +16187,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1422</v>
+        <v>1382</v>
       </c>
       <c r="G402" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
       <c r="H402" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16252,13 +16213,13 @@
         <v>1285</v>
       </c>
       <c r="F403" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="G403" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="H403" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16278,13 +16239,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="G404" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="H404" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16304,13 +16265,13 @@
         <v>1325</v>
       </c>
       <c r="F405" t="s">
-        <v>1358</v>
+        <v>1378</v>
       </c>
       <c r="G405" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H405" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16336,7 +16297,7 @@
         <v>1089</v>
       </c>
       <c r="H406" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16356,13 +16317,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
       <c r="G407" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="H407" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16385,10 +16346,10 @@
         <v>1285</v>
       </c>
       <c r="G408" t="s">
-        <v>1589</v>
+        <v>1576</v>
       </c>
       <c r="H408" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16414,7 +16375,7 @@
         <v>968</v>
       </c>
       <c r="H409" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16440,7 +16401,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16460,13 +16421,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="G411" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="H411" t="s">
-        <v>1791</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16486,13 +16447,13 @@
         <v>1285</v>
       </c>
       <c r="F412" t="s">
-        <v>1285</v>
+        <v>1276</v>
       </c>
       <c r="G412" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="H412" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16512,13 +16473,13 @@
         <v>1312</v>
       </c>
       <c r="F413" t="s">
-        <v>1422</v>
+        <v>1382</v>
       </c>
       <c r="G413" t="s">
-        <v>1685</v>
+        <v>1672</v>
       </c>
       <c r="H413" t="s">
-        <v>1790</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16538,13 +16499,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G414" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="H414" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16564,13 +16525,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1388</v>
+        <v>1340</v>
       </c>
       <c r="G415" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
       <c r="H415" t="s">
-        <v>1805</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16590,13 +16551,13 @@
         <v>1285</v>
       </c>
       <c r="F416" t="s">
-        <v>1347</v>
+        <v>1370</v>
       </c>
       <c r="G416" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
       <c r="H416" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16619,10 +16580,10 @@
         <v>1285</v>
       </c>
       <c r="G417" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="H417" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16642,13 +16603,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1453</v>
+        <v>1338</v>
       </c>
       <c r="G418" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
       <c r="H418" t="s">
-        <v>1792</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16668,13 +16629,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1422</v>
+        <v>1382</v>
       </c>
       <c r="G419" t="s">
-        <v>1685</v>
+        <v>1672</v>
       </c>
       <c r="H419" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16694,13 +16655,13 @@
         <v>1285</v>
       </c>
       <c r="F420" t="s">
-        <v>1454</v>
+        <v>1444</v>
       </c>
       <c r="G420" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
       <c r="H420" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16720,13 +16681,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1391</v>
+        <v>1378</v>
       </c>
       <c r="G421" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
       <c r="H421" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16746,13 +16707,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1422</v>
+        <v>1382</v>
       </c>
       <c r="G422" t="s">
-        <v>1685</v>
+        <v>1672</v>
       </c>
       <c r="H422" t="s">
-        <v>1779</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16778,7 +16739,7 @@
         <v>1065</v>
       </c>
       <c r="H423" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16804,7 +16765,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16824,13 +16785,13 @@
         <v>1298</v>
       </c>
       <c r="F425" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="G425" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
       <c r="H425" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16850,13 +16811,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1455</v>
+        <v>1445</v>
       </c>
       <c r="G426" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
       <c r="H426" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16876,13 +16837,13 @@
         <v>1285</v>
       </c>
       <c r="F427" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="G427" t="s">
         <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16905,10 +16866,10 @@
         <v>1294</v>
       </c>
       <c r="G428" t="s">
-        <v>1627</v>
+        <v>1614</v>
       </c>
       <c r="H428" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16931,10 +16892,10 @@
         <v>1285</v>
       </c>
       <c r="G429" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="H429" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16954,13 +16915,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="G430" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
       <c r="H430" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16980,13 +16941,13 @@
         <v>1297</v>
       </c>
       <c r="F431" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="G431" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="H431" t="s">
-        <v>1806</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17012,7 +16973,7 @@
         <v>1089</v>
       </c>
       <c r="H432" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17032,13 +16993,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1456</v>
+        <v>1446</v>
       </c>
       <c r="G433" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
       <c r="H433" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17058,13 +17019,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G434" t="s">
-        <v>1750</v>
+        <v>1737</v>
       </c>
       <c r="H434" t="s">
-        <v>1802</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17084,13 +17045,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1457</v>
+        <v>1447</v>
       </c>
       <c r="G435" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
       <c r="H435" t="s">
-        <v>1793</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17113,10 +17074,10 @@
         <v>1340</v>
       </c>
       <c r="G436" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
       <c r="H436" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17139,10 +17100,10 @@
         <v>1285</v>
       </c>
       <c r="G437" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="H437" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17168,7 +17129,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17188,13 +17149,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1422</v>
+        <v>1382</v>
       </c>
       <c r="G439" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
       <c r="H439" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17214,13 +17175,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1359</v>
+        <v>1402</v>
       </c>
       <c r="G440" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
       <c r="H440" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17240,13 +17201,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1458</v>
+        <v>1346</v>
       </c>
       <c r="G441" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
       <c r="H441" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17266,13 +17227,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1459</v>
+        <v>1338</v>
       </c>
       <c r="G442" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
       <c r="H442" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17292,13 +17253,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1358</v>
+        <v>1379</v>
       </c>
       <c r="G443" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
       <c r="H443" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17318,13 +17279,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1387</v>
+        <v>1338</v>
       </c>
       <c r="G444" t="s">
-        <v>1758</v>
+        <v>1745</v>
       </c>
       <c r="H444" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17344,13 +17305,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
       <c r="G445" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
       <c r="H445" t="s">
-        <v>1807</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17370,13 +17331,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1443</v>
+        <v>1426</v>
       </c>
       <c r="G446" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
       <c r="H446" t="s">
-        <v>1781</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17399,10 +17360,10 @@
         <v>1294</v>
       </c>
       <c r="G447" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
       <c r="H447" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17422,13 +17383,13 @@
         <v>1285</v>
       </c>
       <c r="F448" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="G448" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
       <c r="H448" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17448,13 +17409,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1443</v>
+        <v>1426</v>
       </c>
       <c r="G449" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
       <c r="H449" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17474,13 +17435,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="G450" t="s">
-        <v>1543</v>
+        <v>1530</v>
       </c>
       <c r="H450" t="s">
-        <v>1776</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17500,13 +17461,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="G451" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H451" t="s">
         <v>1764</v>
-      </c>
-      <c r="H451" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17526,13 +17487,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1422</v>
+        <v>1382</v>
       </c>
       <c r="G452" t="s">
-        <v>1765</v>
+        <v>1752</v>
       </c>
       <c r="H452" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17552,13 +17513,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="G453" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
       <c r="H453" t="s">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17578,13 +17539,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1462</v>
+        <v>1383</v>
       </c>
       <c r="G454" t="s">
-        <v>1767</v>
+        <v>1754</v>
       </c>
       <c r="H454" t="s">
-        <v>1794</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17604,13 +17565,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1463</v>
+        <v>1450</v>
       </c>
       <c r="G455" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
       <c r="H455" t="s">
-        <v>1799</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17630,13 +17591,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1464</v>
+        <v>1451</v>
       </c>
       <c r="G456" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
       <c r="H456" t="s">
-        <v>1797</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17656,13 +17617,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1443</v>
+        <v>1350</v>
       </c>
       <c r="G457" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
       <c r="H457" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17688,7 +17649,7 @@
         <v>1211</v>
       </c>
       <c r="H458" t="s">
-        <v>1808</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17708,13 +17669,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G459" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
       <c r="H459" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17737,10 +17698,10 @@
         <v>1340</v>
       </c>
       <c r="G460" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
       <c r="H460" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17760,13 +17721,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1395</v>
+        <v>1441</v>
       </c>
       <c r="G461" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
       <c r="H461" t="s">
-        <v>1789</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17792,7 +17753,7 @@
         <v>968</v>
       </c>
       <c r="H462" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17812,13 +17773,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1388</v>
+        <v>1339</v>
       </c>
       <c r="G463" t="s">
-        <v>1677</v>
+        <v>1664</v>
       </c>
       <c r="H463" t="s">
-        <v>1778</v>
+        <v>1765</v>
       </c>
     </row>
   </sheetData>
